--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE68A97B-01FC-49B4-AB49-C72011CAB205}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F71D7D-E0F3-4AAC-9F0F-9AE5C8DD5219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1020" windowWidth="25095" windowHeight="8130" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="720" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="35" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="36" r:id="rId3"/>
-    <sheet name="1. ログイン(A101)" sheetId="37" r:id="rId4"/>
-    <sheet name="2. プロジェクト管理(A102)" sheetId="38" r:id="rId5"/>
+    <sheet name="Contents" sheetId="36" r:id="rId3"/>
+    <sheet name="1. Login (A101)" sheetId="37" r:id="rId4"/>
+    <sheet name="2. Project management (A102)" sheetId="38" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. Login (A101)'!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Project management (A102)'!$A$1:$AI$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. ログイン(A101)'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. プロジェクト管理(A102)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. Login (A101)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Project management (A102)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>PJ名</t>
   </si>
@@ -166,13 +168,22 @@
     <t>TIS</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>1. Login (A101)</t>
   </si>
   <si>
     <t>2. Project management (A102)</t>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1. Login (A101)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2. Project management (A102)</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1194,6 +1205,117 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1272,116 +1394,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1392,15 +1436,6 @@
     <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1453,30 +1488,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8701,57 +8712,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="125" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="134" t="s">
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="116" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="117" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="110">
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="84">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="112"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="86"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8759,53 +8770,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="116" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="122" t="str">
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="96" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="110" t="str">
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="84" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="112"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="86"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8813,45 +8824,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="146" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="112"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="86"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -8888,1031 +8899,1187 @@
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="113" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="113" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="113" t="s">
+      <c r="H7" s="89"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="113" t="s">
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="115"/>
-      <c r="AE7" s="114"/>
-      <c r="AF7" s="113" t="s">
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="114"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="88"/>
     </row>
     <row r="8" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98">
+      <c r="C8" s="134"/>
+      <c r="D8" s="135">
         <v>43595</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101" t="s">
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104" t="s">
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107" t="s">
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="104" t="s">
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="106"/>
+      <c r="AG8" s="142"/>
+      <c r="AH8" s="142"/>
+      <c r="AI8" s="143"/>
     </row>
     <row r="9" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="92"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="131"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="132"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="129"/>
     </row>
     <row r="10" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="92"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="131"/>
+      <c r="AD10" s="131"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="129"/>
     </row>
     <row r="11" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="92"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="129"/>
     </row>
     <row r="12" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="91"/>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="92"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="132"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="129"/>
     </row>
     <row r="13" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="92"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="132"/>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="129"/>
     </row>
     <row r="14" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="91"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="92"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="131"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="132"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="129"/>
     </row>
     <row r="15" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="92"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="131"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="132"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="129"/>
     </row>
     <row r="16" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="92"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="132"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="129"/>
     </row>
     <row r="17" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="92"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="129"/>
     </row>
     <row r="18" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="92"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="132"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="129"/>
     </row>
     <row r="19" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="92"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="132"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="129"/>
     </row>
     <row r="20" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="92"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="132"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="129"/>
     </row>
     <row r="21" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="92"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="132"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="129"/>
     </row>
     <row r="22" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="92"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="132"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="129"/>
     </row>
     <row r="23" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="92"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="131"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="132"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="129"/>
     </row>
     <row r="24" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="92"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="129"/>
     </row>
     <row r="25" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="92"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="131"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="129"/>
     </row>
     <row r="26" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="92"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="129"/>
     </row>
     <row r="27" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="92"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="131"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="129"/>
     </row>
     <row r="28" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="131"/>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="129"/>
     </row>
     <row r="29" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="92"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="131"/>
+      <c r="AC29" s="131"/>
+      <c r="AD29" s="131"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="129"/>
     </row>
     <row r="30" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="92"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="131"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="129"/>
     </row>
     <row r="31" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="92"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="131"/>
+      <c r="AD31" s="131"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="129"/>
     </row>
     <row r="32" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="91"/>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="92"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="129"/>
     </row>
     <row r="33" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="90"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="92"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="131"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="131"/>
+      <c r="AD33" s="131"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -9936,162 +10103,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -10247,163 +10258,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="171" t="s">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="171" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -10463,7 +10474,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
@@ -10524,7 +10535,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -10600,7 +10611,7 @@
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -11903,14 +11914,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -11920,6 +11923,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -11957,25 +11968,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
       <c r="O1" s="179" t="s">
         <v>7</v>
       </c>
@@ -11993,23 +12004,23 @@
       <c r="X1" s="189"/>
       <c r="Y1" s="189"/>
       <c r="Z1" s="190"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="40"/>
       <c r="AN1" s="76"/>
       <c r="AO1" s="40"/>
@@ -12023,25 +12034,25 @@
       <c r="AW1" s="40"/>
     </row>
     <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
       <c r="O2" s="182"/>
       <c r="P2" s="183"/>
       <c r="Q2" s="183"/>
@@ -12054,23 +12065,23 @@
       <c r="X2" s="192"/>
       <c r="Y2" s="192"/>
       <c r="Z2" s="193"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="40"/>
       <c r="AN2" s="76"/>
       <c r="AO2" s="40"/>
@@ -12084,25 +12095,25 @@
       <c r="AW2" s="40"/>
     </row>
     <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
@@ -12115,21 +12126,21 @@
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="176" t="str">
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="78"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -12199,7 +12210,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
@@ -12541,14 +12552,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12558,6 +12561,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12599,25 +12610,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
       <c r="O1" s="179" t="s">
         <v>13</v>
       </c>
@@ -12635,23 +12646,23 @@
       <c r="X1" s="189"/>
       <c r="Y1" s="189"/>
       <c r="Z1" s="190"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="40"/>
       <c r="AN1" s="76"/>
       <c r="AO1" s="40"/>
@@ -12665,25 +12676,25 @@
       <c r="AW1" s="40"/>
     </row>
     <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
       <c r="O2" s="182"/>
       <c r="P2" s="183"/>
       <c r="Q2" s="183"/>
@@ -12696,23 +12707,23 @@
       <c r="X2" s="192"/>
       <c r="Y2" s="192"/>
       <c r="Z2" s="193"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="40"/>
       <c r="AN2" s="76"/>
       <c r="AO2" s="40"/>
@@ -12726,25 +12737,25 @@
       <c r="AW2" s="40"/>
     </row>
     <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
@@ -12757,21 +12768,21 @@
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="176" t="str">
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="78"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -12841,7 +12852,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
@@ -12968,14 +12979,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12985,6 +12988,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F71D7D-E0F3-4AAC-9F0F-9AE5C8DD5219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2C8E8E-B76B-47F7-9960-DD7CE19C1664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="720" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" state="hidden" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. Login (A101)'!$A$1:$AI$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Project management (A102)'!$A$1:$AI$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Project management (A102)'!$A$1:$AI$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -25,14 +25,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1205,6 +1203,84 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1316,83 +1392,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1410,84 +1486,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5154,7 +5152,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="ja-JP" sz="1100">
+          <a:endParaRPr lang="ja-JP" sz="900">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5442,13 +5440,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5464,7 +5462,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="2466975"/>
+          <a:off x="4419600" y="7648575"/>
           <a:ext cx="4895850" cy="2286000"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -7701,6 +7699,2343 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244853</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>255621</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4874DA5E-413A-4DC7-88C6-564B02CBF282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2730878" y="3519280"/>
+          <a:ext cx="286993" cy="204994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115644</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE056D36-C503-4F79-A577-F4423C708E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1496769" y="2766806"/>
+          <a:ext cx="4806398" cy="1432477"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150844</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83755</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE8336C-3FD0-4DCD-97AD-D798D19C736D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1808194" y="2590800"/>
+          <a:ext cx="1866486" cy="238539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA10202/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>プロジェクト照会</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17495</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3453987C-9E7D-4085-8770-FF7F6913257E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1951070" y="3168098"/>
+          <a:ext cx="1093305" cy="563217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project search</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>[WA1020201]</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10234</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>39</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2382450-D37C-4186-925D-EF4E2A8DA090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="2496259" y="3157842"/>
+          <a:ext cx="542255" cy="213341"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13233"/>
+            <a:gd name="adj2" fmla="val 191460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465F1C44-9B67-4D73-B8E7-93590E09F54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3133063" y="2920192"/>
+          <a:ext cx="1272972" cy="222995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Serch</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117716</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Oval 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38042C7-1AA9-42F5-AE43-F6BF642D396D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="3391061"/>
+          <a:ext cx="117716" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117716</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17495</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFBDC44-8B27-4FC5-81BA-C6858B7AB9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="65" idx="6"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="393941" y="3449247"/>
+          <a:ext cx="1557129" cy="460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>126890</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110676</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F20936E-0AA8-42C5-8DD3-EE9BC528A0E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="403115" y="3247355"/>
+          <a:ext cx="1364911" cy="225066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Projecct search</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61806</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB326605-D931-483D-8CCD-73CFBB7CC82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3044375" y="3449707"/>
+          <a:ext cx="1437031" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174101</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>18380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>157886</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647B0F8B-B2FA-41DE-8663-1C2970AC1B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3212576" y="3218780"/>
+          <a:ext cx="1364910" cy="225066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project name link</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61806</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>249408</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAAF24B-3329-4710-9640-3524AEFB663C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4481406" y="3139523"/>
+          <a:ext cx="1292502" cy="563217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project detail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>[WA1020202]</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2172</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65534</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91CABB1-6EC4-444B-828D-8888FC8438F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3040647" y="3566905"/>
+          <a:ext cx="1444487" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56902</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>40687</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57864A90-8592-4F32-A434-4C3A100F948F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3371602" y="3595639"/>
+          <a:ext cx="1364910" cy="222995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Back</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52927</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>268919</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5797</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="グループ化 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331F3E21-75DF-423C-9E91-18DF1B2EA223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="329152" y="3702739"/>
+          <a:ext cx="8502742" cy="2703858"/>
+          <a:chOff x="380378" y="4042034"/>
+          <a:chExt cx="8540501" cy="2796428"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="79" name="グループ化 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEED5F9-9634-4C54-A011-E48AB311A551}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="392206" y="5130924"/>
+            <a:ext cx="8528673" cy="1707538"/>
+            <a:chOff x="409680" y="836083"/>
+            <a:chExt cx="8548053" cy="1734931"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="AutoShape 270">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6B283C-66EC-4604-82A5-4439D6844A93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1584555" y="1062844"/>
+              <a:ext cx="7373178" cy="1508170"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF">
+                <a:alpha val="59999"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="15875" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="33CCCC"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="83" name="グループ化 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0493AFAC-A184-431C-A080-4480E2420990}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="409680" y="836083"/>
+              <a:ext cx="7996063" cy="1438575"/>
+              <a:chOff x="409680" y="836083"/>
+              <a:chExt cx="7996063" cy="1438575"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="84" name="Rectangle 271">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07632627-250B-4E2E-BDC8-AFF2D5E6D4C9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1869245" y="836083"/>
+                <a:ext cx="1879371" cy="253265"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>WA10203/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>プロジェクト更新</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="85" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4F4E86-7239-4409-B155-14BE42073243}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="2013962" y="1442831"/>
+                <a:ext cx="1100667" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Project update</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[WA1020301]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B5FD5A-322D-485A-8C5F-E3D49B0A0C63}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="85" idx="3"/>
+                <a:endCxn id="91" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3114629" y="1739164"/>
+                <a:ext cx="1237743" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="87" name="AutoShape 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210B5E3E-8AF5-40F8-B108-9015EF31415B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks noChangeShapeType="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm rot="10800000">
+                <a:off x="2562832" y="1432575"/>
+                <a:ext cx="545936" cy="228065"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector4">
+                <a:avLst>
+                  <a:gd name="adj1" fmla="val -13233"/>
+                  <a:gd name="adj2" fmla="val 191460"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="88" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF2F4FB-0208-4788-A098-144C7DC4AE1C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3203317" y="1187562"/>
+                <a:ext cx="1282176" cy="230358"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Input check failed</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="89" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4998C2-48AB-4B85-A5B5-215003A830A8}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3282830" y="1529451"/>
+                <a:ext cx="1374114" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Input check </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>OK</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="90" name="AutoShape 294">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D74E5A-A1B9-4BD5-AE0F-DDC5582B1E8F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks noChangeShapeType="1"/>
+                <a:endCxn id="85" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="409680" y="1739164"/>
+                <a:ext cx="1604282" cy="1"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="91" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4ACFE61-94A2-4A42-9500-57540A7E9604}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4352372" y="1442831"/>
+                <a:ext cx="1301704" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Project update </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>confirmation</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[WA1020301]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10E9CDE-E42E-4C6F-B212-D5693F1B737B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="91" idx="3"/>
+                <a:endCxn id="95" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5654076" y="1739164"/>
+                <a:ext cx="1449963" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="94" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D0E70A-010C-4B8E-9BBF-B52C54FAC85B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="6034497" y="1529451"/>
+                <a:ext cx="1374113" cy="232427"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Update</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> successful</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="95" name="Rectangle 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE5A13-D80E-4CFE-A5FC-13F70C2547B2}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="7104039" y="1442831"/>
+                <a:ext cx="1301704" cy="592667"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Project update </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>completion</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="ＭＳ 明朝"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[WA1020303]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FAB4C1D-7B4B-4D12-B25B-1C70A575E48B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm flipH="1">
+                <a:off x="3110901" y="1896856"/>
+                <a:ext cx="1207099" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="triangle" w="med" len="med"/>
+              </a:ln>
+              <a:effectLst/>
+            </xdr:spPr>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="97" name="Text Box 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90891572-4589-4C5F-8A9F-779B02439371}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3443697" y="1926326"/>
+                <a:ext cx="1374113" cy="348332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Update</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> failed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Return</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPts val="1100"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="80" name="直線コネクタ 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E567D4E-9AEB-49E6-81C4-B991ACA60463}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="74" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="5400000">
+            <a:off x="2340877" y="2081535"/>
+            <a:ext cx="899136" cy="4820133"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="0" cap="flat">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="81" name="直線コネクタ 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C80C74-7EDB-4ECC-85E5-756743C88DD0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="386890" y="4938825"/>
+            <a:ext cx="0" cy="1084337"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>207532</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>61681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69967</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>126257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962D1C5E-8A22-4B2A-8D76-529CBFBDF5A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="759982" y="5395681"/>
+          <a:ext cx="691110" cy="216976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8712,57 +11047,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="99" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="108" t="s">
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="90" t="s">
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="143" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="84">
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="110">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="86"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="112"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8770,53 +11105,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="90" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="96" t="str">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="122" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="84" t="str">
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="110" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="86"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="112"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8824,45 +11159,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="120" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="86"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="112"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -8899,1187 +11234,1031 @@
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="87" t="s">
+      <c r="E7" s="115"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="87" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="87" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="87" t="s">
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="88"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="114"/>
     </row>
     <row r="8" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135">
+      <c r="C8" s="97"/>
+      <c r="D8" s="98">
         <v>43595</v>
       </c>
-      <c r="E8" s="136"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="138" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141" t="s">
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144" t="s">
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="141" t="s">
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="142"/>
-      <c r="AI8" s="143"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="106"/>
     </row>
     <row r="9" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="131"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="132"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="129"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="92"/>
     </row>
     <row r="10" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="129"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="92"/>
     </row>
     <row r="11" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="131"/>
-      <c r="AA11" s="131"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="131"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="129"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="92"/>
     </row>
     <row r="12" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="132"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
-      <c r="AI12" s="129"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="92"/>
     </row>
     <row r="13" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="132"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="129"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="92"/>
     </row>
     <row r="14" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="132"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="128"/>
-      <c r="AI14" s="129"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="92"/>
     </row>
     <row r="15" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="132"/>
-      <c r="AF15" s="127"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="129"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="92"/>
     </row>
     <row r="16" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="132"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="129"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="92"/>
     </row>
     <row r="17" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="132"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="129"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="92"/>
     </row>
     <row r="18" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="132"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="129"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="92"/>
     </row>
     <row r="19" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="132"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="129"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="92"/>
     </row>
     <row r="20" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="132"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="129"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="92"/>
     </row>
     <row r="21" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="132"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="129"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="92"/>
     </row>
     <row r="22" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="131"/>
-      <c r="AC22" s="131"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="132"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="129"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="92"/>
     </row>
     <row r="23" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="132"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="129"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="91"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="92"/>
     </row>
     <row r="24" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="131"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="132"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
-      <c r="AI24" s="129"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="91"/>
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="92"/>
     </row>
     <row r="25" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="132"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="129"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="91"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="92"/>
     </row>
     <row r="26" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="129"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="91"/>
+      <c r="AH26" s="91"/>
+      <c r="AI26" s="92"/>
     </row>
     <row r="27" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="132"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="129"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="91"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="92"/>
     </row>
     <row r="28" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="131"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="129"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="92"/>
     </row>
     <row r="29" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="131"/>
-      <c r="AC29" s="131"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="132"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="129"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="91"/>
+      <c r="AH29" s="91"/>
+      <c r="AI29" s="92"/>
     </row>
     <row r="30" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="131"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="132"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="129"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="92"/>
     </row>
     <row r="31" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="131"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="132"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="129"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="92"/>
     </row>
     <row r="32" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="132"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="129"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="92"/>
     </row>
     <row r="33" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="131"/>
-      <c r="AD33" s="131"/>
-      <c r="AE33" s="132"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="129"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10103,6 +12282,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -10119,7 +12454,7 @@
   <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10258,163 +12593,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="170" t="str">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="156" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="173">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="156" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -11914,6 +14249,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -11923,14 +14266,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -11947,7 +14282,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11968,25 +14303,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
       <c r="O1" s="179" t="s">
         <v>7</v>
       </c>
@@ -12004,23 +14339,23 @@
       <c r="X1" s="189"/>
       <c r="Y1" s="189"/>
       <c r="Z1" s="190"/>
-      <c r="AA1" s="158" t="s">
+      <c r="AA1" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="173">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="40"/>
       <c r="AN1" s="76"/>
       <c r="AO1" s="40"/>
@@ -12034,25 +14369,25 @@
       <c r="AW1" s="40"/>
     </row>
     <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
       <c r="O2" s="182"/>
       <c r="P2" s="183"/>
       <c r="Q2" s="183"/>
@@ -12065,23 +14400,23 @@
       <c r="X2" s="192"/>
       <c r="Y2" s="192"/>
       <c r="Z2" s="193"/>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="40"/>
       <c r="AN2" s="76"/>
       <c r="AO2" s="40"/>
@@ -12095,25 +14430,25 @@
       <c r="AW2" s="40"/>
     </row>
     <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
@@ -12126,21 +14461,21 @@
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="150" t="str">
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="78"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -12552,6 +14887,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12561,14 +14904,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12586,10 +14921,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AX53"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -12610,25 +14945,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
       <c r="O1" s="179" t="s">
         <v>13</v>
       </c>
@@ -12646,23 +14981,23 @@
       <c r="X1" s="189"/>
       <c r="Y1" s="189"/>
       <c r="Z1" s="190"/>
-      <c r="AA1" s="158" t="s">
+      <c r="AA1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="173">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="175"/>
       <c r="AJ1" s="40"/>
       <c r="AN1" s="76"/>
       <c r="AO1" s="40"/>
@@ -12676,25 +15011,25 @@
       <c r="AW1" s="40"/>
     </row>
     <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
       <c r="O2" s="182"/>
       <c r="P2" s="183"/>
       <c r="Q2" s="183"/>
@@ -12707,23 +15042,23 @@
       <c r="X2" s="192"/>
       <c r="Y2" s="192"/>
       <c r="Z2" s="193"/>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
       <c r="AJ2" s="40"/>
       <c r="AN2" s="76"/>
       <c r="AO2" s="40"/>
@@ -12737,25 +15072,25 @@
       <c r="AW2" s="40"/>
     </row>
     <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
@@ -12768,21 +15103,21 @@
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="150" t="str">
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
       <c r="AJ3" s="78"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -12975,10 +15310,460 @@
       <c r="G19" s="80"/>
       <c r="I19" s="81"/>
       <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
+      <c r="M19" s="82"/>
+      <c r="P19" s="80"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="Z19" s="82"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="81"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="82"/>
+      <c r="P20" s="80"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="Z20" s="82"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="80"/>
+      <c r="I21" s="81"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="82"/>
+      <c r="P21" s="80"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="Z21" s="82"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="80"/>
+      <c r="I22" s="81"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="82"/>
+      <c r="P22" s="80"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="Z22" s="82"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="80"/>
+      <c r="I23" s="81"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="82"/>
+      <c r="P23" s="80"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="Z23" s="82"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="80"/>
+      <c r="I24" s="81"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="82"/>
+      <c r="P24" s="80"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="Z24" s="82"/>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="80"/>
+      <c r="I25" s="81"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="82"/>
+      <c r="P25" s="80"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="Z25" s="82"/>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="80"/>
+      <c r="I26" s="81"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="82"/>
+      <c r="P26" s="80"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="Z26" s="82"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="80"/>
+      <c r="I27" s="81"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="82"/>
+      <c r="P27" s="80"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="Z27" s="82"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="80"/>
+      <c r="I28" s="81"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="82"/>
+      <c r="P28" s="80"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="Z28" s="82"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="80"/>
+      <c r="I29" s="81"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="82"/>
+      <c r="P29" s="80"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="Z29" s="82"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="80"/>
+      <c r="I30" s="81"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="82"/>
+      <c r="P30" s="80"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="Z30" s="82"/>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="80"/>
+      <c r="I31" s="81"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="82"/>
+      <c r="P31" s="80"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="Z31" s="82"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="80"/>
+      <c r="I32" s="81"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="82"/>
+      <c r="P32" s="80"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="Z32" s="82"/>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="80"/>
+      <c r="I33" s="81"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="82"/>
+      <c r="P33" s="80"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="Z33" s="82"/>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="80"/>
+      <c r="I34" s="81"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="82"/>
+      <c r="P34" s="80"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="81"/>
+      <c r="Z34" s="82"/>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="80"/>
+      <c r="I35" s="81"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="82"/>
+      <c r="P35" s="80"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="Z35" s="82"/>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="I36" s="81"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="82"/>
+      <c r="P36" s="80"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="Z36" s="82"/>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="80"/>
+      <c r="I37" s="81"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="82"/>
+      <c r="P37" s="80"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="Z37" s="82"/>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="80"/>
+      <c r="I38" s="81"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="82"/>
+      <c r="P38" s="80"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="Z38" s="82"/>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="80"/>
+      <c r="I39" s="81"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="82"/>
+      <c r="P39" s="80"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="Z39" s="82"/>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="80"/>
+      <c r="I40" s="81"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="82"/>
+      <c r="P40" s="80"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="Z40" s="82"/>
+    </row>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="80"/>
+      <c r="I41" s="81"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="82"/>
+      <c r="P41" s="80"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="Z41" s="82"/>
+    </row>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="80"/>
+      <c r="I42" s="81"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="82"/>
+      <c r="P42" s="80"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81"/>
+      <c r="Z42" s="82"/>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="80"/>
+      <c r="I43" s="81"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="82"/>
+      <c r="P43" s="80"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="81"/>
+      <c r="Z43" s="82"/>
+    </row>
+    <row r="44" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="80"/>
+      <c r="I44" s="81"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="82"/>
+      <c r="P44" s="80"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="81"/>
+      <c r="Z44" s="82"/>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="80"/>
+      <c r="I45" s="81"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="82"/>
+      <c r="P45" s="80"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="Z45" s="82"/>
+    </row>
+    <row r="46" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="80"/>
+      <c r="I46" s="81"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="82"/>
+      <c r="P46" s="80"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
+      <c r="Z46" s="82"/>
+    </row>
+    <row r="47" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="80"/>
+      <c r="I47" s="81"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="82"/>
+      <c r="P47" s="80"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="Z47" s="82"/>
+    </row>
+    <row r="48" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="80"/>
+      <c r="I48" s="81"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="82"/>
+      <c r="P48" s="80"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="Z48" s="82"/>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="80"/>
+      <c r="I49" s="81"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="82"/>
+      <c r="P49" s="80"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="81"/>
+      <c r="Z49" s="82"/>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="80"/>
+      <c r="I50" s="81"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="82"/>
+      <c r="P50" s="80"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="81"/>
+      <c r="Z50" s="82"/>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="80"/>
+      <c r="I51" s="81"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="82"/>
+      <c r="P51" s="80"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="81"/>
+      <c r="Z51" s="82"/>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="80"/>
+      <c r="I52" s="81"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="82"/>
+      <c r="P52" s="80"/>
+      <c r="R52" s="81"/>
+      <c r="S52" s="81"/>
+      <c r="Z52" s="82"/>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="80"/>
+      <c r="I53" s="81"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12988,14 +15773,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2C8E8E-B76B-47F7-9960-DD7CE19C1664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D084C66-5983-4DAE-BF1B-C98B65A6B6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="3570" windowWidth="20295" windowHeight="9870" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" state="hidden" r:id="rId1"/>
@@ -25,12 +25,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1203,6 +1205,117 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1281,116 +1394,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1401,15 +1436,6 @@
     <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1462,30 +1488,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,19 +7908,16 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>WA10202/</a:t>
+            <a:t>WA10202/Project inquiry</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>プロジェクト照会</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8953,27 +8952,8 @@
                     <a:ea typeface="ＭＳ 明朝"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>WA10203/</a:t>
+                  <a:t>WA10203/Project update</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="ＭＳ 明朝"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>プロジェクト更新</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="ＭＳ 明朝"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -10013,15 +9993,13 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>更新</a:t>
+            <a:t>Update</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -11047,57 +11025,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="125" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="134" t="s">
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="116" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="117" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="110">
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="84">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="112"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="86"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -11105,53 +11083,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="116" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="122" t="str">
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="96" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="110" t="str">
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="84" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="112"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="86"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -11159,45 +11137,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="146" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="112"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="86"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -11234,1031 +11212,1187 @@
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="113" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="113" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="113" t="s">
+      <c r="H7" s="89"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="113" t="s">
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="115"/>
-      <c r="AE7" s="114"/>
-      <c r="AF7" s="113" t="s">
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="114"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="88"/>
     </row>
     <row r="8" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98">
+      <c r="C8" s="134"/>
+      <c r="D8" s="135">
         <v>43595</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101" t="s">
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104" t="s">
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107" t="s">
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="104" t="s">
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="106"/>
+      <c r="AG8" s="142"/>
+      <c r="AH8" s="142"/>
+      <c r="AI8" s="143"/>
     </row>
     <row r="9" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="92"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="131"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="132"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="129"/>
     </row>
     <row r="10" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="92"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="131"/>
+      <c r="AD10" s="131"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="129"/>
     </row>
     <row r="11" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="92"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="129"/>
     </row>
     <row r="12" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="91"/>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="92"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="132"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="129"/>
     </row>
     <row r="13" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="92"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="132"/>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="129"/>
     </row>
     <row r="14" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="91"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="92"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="131"/>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="132"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="129"/>
     </row>
     <row r="15" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="92"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="131"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="132"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="129"/>
     </row>
     <row r="16" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="92"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="132"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="129"/>
     </row>
     <row r="17" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="92"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="129"/>
     </row>
     <row r="18" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="92"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="132"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="129"/>
     </row>
     <row r="19" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="92"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="132"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="129"/>
     </row>
     <row r="20" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="92"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="132"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="129"/>
     </row>
     <row r="21" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="92"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="132"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="129"/>
     </row>
     <row r="22" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="92"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="132"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="129"/>
     </row>
     <row r="23" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="92"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="131"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="132"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="129"/>
     </row>
     <row r="24" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="92"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="129"/>
     </row>
     <row r="25" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="92"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="131"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="129"/>
     </row>
     <row r="26" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="92"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="129"/>
     </row>
     <row r="27" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="92"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="131"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="129"/>
     </row>
     <row r="28" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="131"/>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="129"/>
     </row>
     <row r="29" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="92"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="131"/>
+      <c r="AC29" s="131"/>
+      <c r="AD29" s="131"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="129"/>
     </row>
     <row r="30" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="92"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="131"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="129"/>
     </row>
     <row r="31" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="92"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="131"/>
+      <c r="AD31" s="131"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="129"/>
     </row>
     <row r="32" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="91"/>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="92"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="129"/>
     </row>
     <row r="33" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="90"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="92"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="131"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="131"/>
+      <c r="AD33" s="131"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12282,162 +12416,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -12454,7 +12432,7 @@
   <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12593,163 +12571,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="171" t="s">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="171" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -14249,14 +14227,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14266,6 +14236,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14282,7 +14260,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14303,25 +14281,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
       <c r="O1" s="179" t="s">
         <v>7</v>
       </c>
@@ -14339,23 +14317,23 @@
       <c r="X1" s="189"/>
       <c r="Y1" s="189"/>
       <c r="Z1" s="190"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="40"/>
       <c r="AN1" s="76"/>
       <c r="AO1" s="40"/>
@@ -14369,25 +14347,25 @@
       <c r="AW1" s="40"/>
     </row>
     <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
       <c r="O2" s="182"/>
       <c r="P2" s="183"/>
       <c r="Q2" s="183"/>
@@ -14400,23 +14378,23 @@
       <c r="X2" s="192"/>
       <c r="Y2" s="192"/>
       <c r="Z2" s="193"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="40"/>
       <c r="AN2" s="76"/>
       <c r="AO2" s="40"/>
@@ -14430,25 +14408,25 @@
       <c r="AW2" s="40"/>
     </row>
     <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
@@ -14461,21 +14439,21 @@
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="176" t="str">
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="78"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -14887,14 +14865,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -14904,6 +14874,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14924,7 +14902,7 @@
   <dimension ref="A1:AX53"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14945,25 +14923,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
       <c r="O1" s="179" t="s">
         <v>13</v>
       </c>
@@ -14981,23 +14959,23 @@
       <c r="X1" s="189"/>
       <c r="Y1" s="189"/>
       <c r="Z1" s="190"/>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="40"/>
       <c r="AN1" s="76"/>
       <c r="AO1" s="40"/>
@@ -15011,25 +14989,25 @@
       <c r="AW1" s="40"/>
     </row>
     <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
       <c r="O2" s="182"/>
       <c r="P2" s="183"/>
       <c r="Q2" s="183"/>
@@ -15042,23 +15020,23 @@
       <c r="X2" s="192"/>
       <c r="Y2" s="192"/>
       <c r="Z2" s="193"/>
-      <c r="AA2" s="147" t="s">
+      <c r="AA2" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="40"/>
       <c r="AN2" s="76"/>
       <c r="AO2" s="40"/>
@@ -15072,25 +15050,25 @@
       <c r="AW2" s="40"/>
     </row>
     <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
@@ -15103,21 +15081,21 @@
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="176" t="str">
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="78"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -15756,14 +15734,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15773,6 +15743,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D084C66-5983-4DAE-BF1B-C98B65A6B6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94519EBD-FE10-43DE-9602-5D61E851EAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="3570" windowWidth="20295" windowHeight="9870" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="510" windowWidth="24000" windowHeight="7845" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" state="hidden" r:id="rId1"/>
@@ -2418,10 +2418,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="6863292" y="8272534"/>
-            <a:ext cx="576460" cy="171233"/>
-            <a:chOff x="4124325" y="10129794"/>
-            <a:chExt cx="676275" cy="200025"/>
+            <a:off x="6863292" y="8272520"/>
+            <a:ext cx="576460" cy="171232"/>
+            <a:chOff x="4124325" y="10129786"/>
+            <a:chExt cx="676275" cy="200024"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -2472,8 +2472,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4230750" y="10129794"/>
-              <a:ext cx="409575" cy="200025"/>
+              <a:off x="4230747" y="10129786"/>
+              <a:ext cx="409575" cy="200024"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2806,8 +2806,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5093316" y="8374493"/>
-            <a:ext cx="1047371" cy="178957"/>
+            <a:off x="5093316" y="8291434"/>
+            <a:ext cx="1047371" cy="297894"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6057,8 +6057,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5093316" y="8374493"/>
-            <a:ext cx="1047371" cy="178957"/>
+            <a:off x="5093316" y="8318341"/>
+            <a:ext cx="1047371" cy="278050"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94519EBD-FE10-43DE-9602-5D61E851EAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDC040-1BEC-4016-BF10-809B76062F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="510" windowWidth="24000" windowHeight="7845" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" state="hidden" r:id="rId1"/>
@@ -1638,8 +1638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2213,8 +2213,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5029200"/>
-          <a:ext cx="4895850" cy="2286000"/>
+          <a:off x="4754880" y="5029200"/>
+          <a:ext cx="5252085" cy="2286000"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -5464,8 +5464,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="7648575"/>
-          <a:ext cx="4895850" cy="2286000"/>
+          <a:off x="4754880" y="7648575"/>
+          <a:ext cx="5252085" cy="2286000"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
         </a:xfrm>
@@ -7277,7 +7277,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7285,19 +7285,8 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Project registration completion</a:t>
+            <a:t>Project registration complete</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" sz="900">
               <a:solidFill>
@@ -7908,7 +7897,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>WA10202/Project inquiry</a:t>
+            <a:t>WA10202/Project search</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -7951,8 +7940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1951070" y="3168098"/>
-          <a:ext cx="1093305" cy="563217"/>
+          <a:off x="2097755" y="3168098"/>
+          <a:ext cx="1177125" cy="563217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8787,8 +8776,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="329152" y="3702739"/>
-          <a:ext cx="8502742" cy="2703858"/>
+          <a:off x="350107" y="3702739"/>
+          <a:ext cx="9131392" cy="2703858"/>
           <a:chOff x="380378" y="4042034"/>
           <a:chExt cx="8540501" cy="2796428"/>
         </a:xfrm>
@@ -9607,16 +9596,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Project update </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>completion</a:t>
+                  <a:t>Project update complete</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
                   <a:effectLst/>
@@ -10370,42 +10350,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="15"/>
+    <col min="1" max="16384" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -10413,12 +10393,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -10429,42 +10409,42 @@
       <c r="J25" s="83"/>
       <c r="K25" s="83"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="20"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="19"/>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="19"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="19"/>
       <c r="G31" s="21"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="19"/>
       <c r="G32" s="21"/>
       <c r="H32" s="19"/>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="19"/>
       <c r="H33" s="19"/>
       <c r="J33" s="23"/>
@@ -10474,7 +10454,7 @@
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="19"/>
       <c r="H34" s="19"/>
       <c r="J34" s="22"/>
@@ -10487,515 +10467,515 @@
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="27"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="26"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
       <c r="R37" s="29"/>
       <c r="S37" s="28"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -11019,9 +10999,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="16384" width="4.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12435,142 +12415,142 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="65" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="46" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="65" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="46"/>
-    <col min="257" max="290" width="4.83203125" style="46" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="46"/>
-    <col min="513" max="546" width="4.83203125" style="46" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="46"/>
-    <col min="769" max="802" width="4.83203125" style="46" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="46"/>
-    <col min="1025" max="1058" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="46"/>
-    <col min="1281" max="1314" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="46"/>
-    <col min="1537" max="1570" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="46"/>
-    <col min="1793" max="1826" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="46"/>
-    <col min="2049" max="2082" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="46"/>
-    <col min="2305" max="2338" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="46"/>
-    <col min="2561" max="2594" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="46"/>
-    <col min="2817" max="2850" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="46"/>
-    <col min="3073" max="3106" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="46"/>
-    <col min="3329" max="3362" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="46"/>
-    <col min="3585" max="3618" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="46"/>
-    <col min="3841" max="3874" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="46"/>
-    <col min="4097" max="4130" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="46"/>
-    <col min="4353" max="4386" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="46"/>
-    <col min="4609" max="4642" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="46"/>
-    <col min="4865" max="4898" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="46"/>
-    <col min="5121" max="5154" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="46"/>
-    <col min="5377" max="5410" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="46"/>
-    <col min="5633" max="5666" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="46"/>
-    <col min="5889" max="5922" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="46"/>
-    <col min="6145" max="6178" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="46"/>
-    <col min="6401" max="6434" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="46"/>
-    <col min="6657" max="6690" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="46"/>
-    <col min="6913" max="6946" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="46"/>
-    <col min="7169" max="7202" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="46"/>
-    <col min="7425" max="7458" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="46"/>
-    <col min="7681" max="7714" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="46"/>
-    <col min="7937" max="7970" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="46"/>
-    <col min="8193" max="8226" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="46"/>
-    <col min="8449" max="8482" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="46"/>
-    <col min="8705" max="8738" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="46"/>
-    <col min="8961" max="8994" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="46"/>
-    <col min="9217" max="9250" width="4.83203125" style="46" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="46"/>
-    <col min="9473" max="9506" width="4.83203125" style="46" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="46"/>
-    <col min="9729" max="9762" width="4.83203125" style="46" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="46"/>
-    <col min="9985" max="10018" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="46"/>
-    <col min="10241" max="10274" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="46"/>
-    <col min="10497" max="10530" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="46"/>
-    <col min="10753" max="10786" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="46"/>
-    <col min="11009" max="11042" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="46"/>
-    <col min="11265" max="11298" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="46"/>
-    <col min="11521" max="11554" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="46"/>
-    <col min="11777" max="11810" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="46"/>
-    <col min="12033" max="12066" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="46"/>
-    <col min="12289" max="12322" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="46"/>
-    <col min="12545" max="12578" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="46"/>
-    <col min="12801" max="12834" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="46"/>
-    <col min="13057" max="13090" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="46"/>
-    <col min="13313" max="13346" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="46"/>
-    <col min="13569" max="13602" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="46"/>
-    <col min="13825" max="13858" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="46"/>
-    <col min="14081" max="14114" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="46"/>
-    <col min="14337" max="14370" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="46"/>
-    <col min="14593" max="14626" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="46"/>
-    <col min="14849" max="14882" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="46"/>
-    <col min="15105" max="15138" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="46"/>
-    <col min="15361" max="15394" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="46"/>
-    <col min="15617" max="15650" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="46"/>
-    <col min="15873" max="15906" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="46"/>
-    <col min="16129" max="16162" width="4.83203125" style="46" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="46"/>
+    <col min="1" max="16" width="4.875" style="46" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="65" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="46" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="65" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="46"/>
+    <col min="257" max="290" width="4.875" style="46" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="46"/>
+    <col min="513" max="546" width="4.875" style="46" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="46"/>
+    <col min="769" max="802" width="4.875" style="46" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="46"/>
+    <col min="1025" max="1058" width="4.875" style="46" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="46"/>
+    <col min="1281" max="1314" width="4.875" style="46" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="46"/>
+    <col min="1537" max="1570" width="4.875" style="46" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="46"/>
+    <col min="1793" max="1826" width="4.875" style="46" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="46"/>
+    <col min="2049" max="2082" width="4.875" style="46" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="46"/>
+    <col min="2305" max="2338" width="4.875" style="46" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="46"/>
+    <col min="2561" max="2594" width="4.875" style="46" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="46"/>
+    <col min="2817" max="2850" width="4.875" style="46" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="46"/>
+    <col min="3073" max="3106" width="4.875" style="46" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="46"/>
+    <col min="3329" max="3362" width="4.875" style="46" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="46"/>
+    <col min="3585" max="3618" width="4.875" style="46" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="46"/>
+    <col min="3841" max="3874" width="4.875" style="46" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="46"/>
+    <col min="4097" max="4130" width="4.875" style="46" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="46"/>
+    <col min="4353" max="4386" width="4.875" style="46" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="46"/>
+    <col min="4609" max="4642" width="4.875" style="46" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="46"/>
+    <col min="4865" max="4898" width="4.875" style="46" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="46"/>
+    <col min="5121" max="5154" width="4.875" style="46" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="46"/>
+    <col min="5377" max="5410" width="4.875" style="46" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="46"/>
+    <col min="5633" max="5666" width="4.875" style="46" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="46"/>
+    <col min="5889" max="5922" width="4.875" style="46" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="46"/>
+    <col min="6145" max="6178" width="4.875" style="46" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="46"/>
+    <col min="6401" max="6434" width="4.875" style="46" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="46"/>
+    <col min="6657" max="6690" width="4.875" style="46" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="46"/>
+    <col min="6913" max="6946" width="4.875" style="46" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="46"/>
+    <col min="7169" max="7202" width="4.875" style="46" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="46"/>
+    <col min="7425" max="7458" width="4.875" style="46" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="46"/>
+    <col min="7681" max="7714" width="4.875" style="46" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="46"/>
+    <col min="7937" max="7970" width="4.875" style="46" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="46"/>
+    <col min="8193" max="8226" width="4.875" style="46" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="46"/>
+    <col min="8449" max="8482" width="4.875" style="46" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="46"/>
+    <col min="8705" max="8738" width="4.875" style="46" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="46"/>
+    <col min="8961" max="8994" width="4.875" style="46" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="46"/>
+    <col min="9217" max="9250" width="4.875" style="46" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="46"/>
+    <col min="9473" max="9506" width="4.875" style="46" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="46"/>
+    <col min="9729" max="9762" width="4.875" style="46" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="46"/>
+    <col min="9985" max="10018" width="4.875" style="46" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="46"/>
+    <col min="10241" max="10274" width="4.875" style="46" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="46"/>
+    <col min="10497" max="10530" width="4.875" style="46" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="46"/>
+    <col min="10753" max="10786" width="4.875" style="46" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="46"/>
+    <col min="11009" max="11042" width="4.875" style="46" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="46"/>
+    <col min="11265" max="11298" width="4.875" style="46" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="46"/>
+    <col min="11521" max="11554" width="4.875" style="46" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="46"/>
+    <col min="11777" max="11810" width="4.875" style="46" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="46"/>
+    <col min="12033" max="12066" width="4.875" style="46" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="46"/>
+    <col min="12289" max="12322" width="4.875" style="46" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="46"/>
+    <col min="12545" max="12578" width="4.875" style="46" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="46"/>
+    <col min="12801" max="12834" width="4.875" style="46" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="46"/>
+    <col min="13057" max="13090" width="4.875" style="46" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="46"/>
+    <col min="13313" max="13346" width="4.875" style="46" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="46"/>
+    <col min="13569" max="13602" width="4.875" style="46" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="46"/>
+    <col min="13825" max="13858" width="4.875" style="46" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="46"/>
+    <col min="14081" max="14114" width="4.875" style="46" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="46"/>
+    <col min="14337" max="14370" width="4.875" style="46" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="46"/>
+    <col min="14593" max="14626" width="4.875" style="46" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="46"/>
+    <col min="14849" max="14882" width="4.875" style="46" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="46"/>
+    <col min="15105" max="15138" width="4.875" style="46" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="46"/>
+    <col min="15361" max="15394" width="4.875" style="46" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="46"/>
+    <col min="15617" max="15650" width="4.875" style="46" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="46"/>
+    <col min="15873" max="15906" width="4.875" style="46" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="46"/>
+    <col min="16129" max="16162" width="4.875" style="46" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
@@ -12628,7 +12608,7 @@
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>3</v>
       </c>
@@ -12681,7 +12661,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
         <v>5</v>
       </c>
@@ -12732,7 +12712,7 @@
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -12769,7 +12749,7 @@
       <c r="AH4" s="34"/>
       <c r="AI4" s="34"/>
     </row>
-    <row r="5" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -12808,7 +12788,7 @@
       <c r="AH5" s="34"/>
       <c r="AI5" s="34"/>
     </row>
-    <row r="6" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -12845,7 +12825,7 @@
       <c r="AH6" s="34"/>
       <c r="AI6" s="34"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="39" t="s">
         <v>45</v>
@@ -12884,7 +12864,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -12921,7 +12901,7 @@
       <c r="AH8" s="48"/>
       <c r="AI8" s="45"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
         <v>46</v>
@@ -12960,7 +12940,7 @@
       <c r="AH9" s="49"/>
       <c r="AI9" s="38"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -12996,7 +12976,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="40"/>
@@ -13033,7 +13013,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -13070,7 +13050,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="40"/>
@@ -13107,7 +13087,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -13144,7 +13124,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
@@ -13181,7 +13161,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38"/>
@@ -13218,7 +13198,7 @@
       <c r="AH16" s="44"/>
       <c r="AI16" s="45"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="38"/>
@@ -13255,7 +13235,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="34"/>
@@ -13291,7 +13271,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40"/>
@@ -13328,7 +13308,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="38"/>
@@ -13365,7 +13345,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="34"/>
       <c r="C21" s="38"/>
@@ -13402,7 +13382,7 @@
       <c r="AH21" s="44"/>
       <c r="AI21" s="45"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="34"/>
       <c r="C22" s="38"/>
@@ -13439,7 +13419,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="34"/>
       <c r="C23" s="38"/>
@@ -13476,7 +13456,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="50"/>
       <c r="C24" s="40"/>
@@ -13513,7 +13493,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="34"/>
       <c r="C25" s="38"/>
@@ -13550,7 +13530,7 @@
       <c r="AH25" s="44"/>
       <c r="AI25" s="45"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="34"/>
       <c r="C26" s="38"/>
@@ -13587,7 +13567,7 @@
       <c r="AH26" s="44"/>
       <c r="AI26" s="45"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="34"/>
       <c r="C27" s="38"/>
@@ -13624,7 +13604,7 @@
       <c r="AH27" s="44"/>
       <c r="AI27" s="45"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="34"/>
       <c r="C28" s="38"/>
@@ -13661,7 +13641,7 @@
       <c r="AH28" s="44"/>
       <c r="AI28" s="45"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="34"/>
       <c r="C29" s="38"/>
@@ -13698,7 +13678,7 @@
       <c r="AH29" s="44"/>
       <c r="AI29" s="45"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="34"/>
       <c r="C30" s="38"/>
@@ -13735,7 +13715,7 @@
       <c r="AH30" s="44"/>
       <c r="AI30" s="45"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -13772,7 +13752,7 @@
       <c r="AH31" s="54"/>
       <c r="AI31" s="55"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="34"/>
       <c r="C32" s="35"/>
@@ -13809,7 +13789,7 @@
       <c r="AH32" s="54"/>
       <c r="AI32" s="55"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="58"/>
       <c r="C33" s="38"/>
@@ -13846,7 +13826,7 @@
       <c r="AH33" s="54"/>
       <c r="AI33" s="55"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="58"/>
       <c r="C34" s="38"/>
@@ -13883,7 +13863,7 @@
       <c r="AH34" s="54"/>
       <c r="AI34" s="55"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="58"/>
       <c r="C35" s="38"/>
@@ -13920,7 +13900,7 @@
       <c r="AH35" s="54"/>
       <c r="AI35" s="55"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="58"/>
       <c r="C36" s="38"/>
@@ -13957,7 +13937,7 @@
       <c r="AH36" s="54"/>
       <c r="AI36" s="55"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -14263,24 +14243,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="80" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="80" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="81" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="80" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="81" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="80" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="81" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="80" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="81" customWidth="1"/>
-    <col min="23" max="29" width="4.83203125" style="80" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="81" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="80"/>
+    <col min="1" max="2" width="4.875" style="80" customWidth="1"/>
+    <col min="3" max="5" width="4.875" style="81" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="80" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="81" customWidth="1"/>
+    <col min="8" max="11" width="4.875" style="80" customWidth="1"/>
+    <col min="12" max="13" width="4.875" style="81" customWidth="1"/>
+    <col min="14" max="15" width="4.875" style="80" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="81" customWidth="1"/>
+    <col min="17" max="21" width="4.875" style="80" customWidth="1"/>
+    <col min="22" max="22" width="4.875" style="81" customWidth="1"/>
+    <col min="23" max="29" width="4.875" style="80" customWidth="1"/>
+    <col min="30" max="31" width="4.875" style="81" customWidth="1"/>
+    <col min="32" max="16384" width="4.875" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158" t="s">
         <v>6</v>
       </c>
@@ -14346,7 +14326,7 @@
       <c r="AV1" s="40"/>
       <c r="AW1" s="40"/>
     </row>
-    <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>9</v>
       </c>
@@ -14407,7 +14387,7 @@
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
     </row>
-    <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
         <v>11</v>
       </c>
@@ -14469,7 +14449,7 @@
       <c r="AV3" s="77"/>
       <c r="AW3" s="77"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="34"/>
@@ -14521,12 +14501,12 @@
       <c r="AW4" s="38"/>
       <c r="AX4" s="38"/>
     </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="F6" s="81"/>
@@ -14538,7 +14518,7 @@
       <c r="R6" s="81"/>
       <c r="S6" s="81"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="F7" s="81"/>
@@ -14550,7 +14530,7 @@
       <c r="R7" s="81"/>
       <c r="S7" s="81"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="F8" s="81"/>
@@ -14562,7 +14542,7 @@
       <c r="R8" s="81"/>
       <c r="S8" s="81"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="F9" s="81"/>
@@ -14574,9 +14554,9 @@
       <c r="R9" s="81"/>
       <c r="S9" s="81"/>
     </row>
-    <row r="10" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
       <c r="F12" s="81"/>
@@ -14588,7 +14568,7 @@
       <c r="R12" s="81"/>
       <c r="S12" s="81"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
       <c r="F13" s="81"/>
@@ -14600,8 +14580,8 @@
       <c r="R13" s="81"/>
       <c r="S13" s="81"/>
     </row>
-    <row r="14" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
       <c r="F15" s="81"/>
@@ -14613,8 +14593,8 @@
       <c r="R15" s="81"/>
       <c r="S15" s="81"/>
     </row>
-    <row r="16" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="F17" s="81"/>
@@ -14626,7 +14606,7 @@
       <c r="R17" s="81"/>
       <c r="S17" s="81"/>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="F18" s="81"/>
@@ -14639,7 +14619,7 @@
       <c r="S18" s="81"/>
       <c r="Z18" s="82"/>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
       <c r="F19" s="81"/>
@@ -14651,7 +14631,7 @@
       <c r="R19" s="81"/>
       <c r="S19" s="81"/>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
       <c r="F20" s="81"/>
@@ -14660,7 +14640,7 @@
       <c r="L20" s="80"/>
       <c r="M20" s="80"/>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
       <c r="F21" s="81"/>
@@ -14669,7 +14649,7 @@
       <c r="L21" s="80"/>
       <c r="M21" s="80"/>
     </row>
-    <row r="22" spans="3:31" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="80"/>
       <c r="R22" s="80"/>
       <c r="S22" s="80"/>
@@ -14681,7 +14661,7 @@
       <c r="Z22" s="80"/>
       <c r="AA22" s="80"/>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
       <c r="F23" s="81"/>
@@ -14693,7 +14673,7 @@
       <c r="R23" s="81"/>
       <c r="S23" s="81"/>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
       <c r="F24" s="81"/>
@@ -14705,7 +14685,7 @@
       <c r="R24" s="81"/>
       <c r="S24" s="81"/>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
       <c r="F25" s="81"/>
@@ -14717,7 +14697,7 @@
       <c r="R25" s="81"/>
       <c r="S25" s="81"/>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
       <c r="F26" s="81"/>
@@ -14729,8 +14709,8 @@
       <c r="R26" s="81"/>
       <c r="S26" s="81"/>
     </row>
-    <row r="27" spans="3:31" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
       <c r="F28" s="81"/>
       <c r="H28" s="81"/>
       <c r="I28" s="81"/>
@@ -14748,7 +14728,7 @@
       <c r="Z28" s="81"/>
       <c r="AA28" s="81"/>
     </row>
-    <row r="29" spans="3:31" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:31" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
       <c r="G29" s="80"/>
@@ -14768,7 +14748,7 @@
       <c r="Z29" s="80"/>
       <c r="AA29" s="80"/>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
       <c r="F30" s="81"/>
@@ -14780,7 +14760,7 @@
       <c r="R30" s="81"/>
       <c r="S30" s="81"/>
     </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
       <c r="F31" s="81"/>
       <c r="H31" s="81"/>
       <c r="I31" s="81"/>
@@ -14798,7 +14778,7 @@
       <c r="Z31" s="81"/>
       <c r="AA31" s="81"/>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="F32" s="81"/>
@@ -14813,7 +14793,7 @@
       <c r="AD32" s="80"/>
       <c r="AE32" s="80"/>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
       <c r="F33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
@@ -14834,7 +14814,7 @@
       <c r="AD33" s="80"/>
       <c r="AE33" s="80"/>
     </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
       <c r="F34" s="81"/>
@@ -14850,7 +14830,7 @@
       <c r="AF34" s="81"/>
       <c r="AG34" s="81"/>
     </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="F35" s="81"/>
@@ -14905,24 +14885,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="80" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="80" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="81" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="80" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="81" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="80" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="81" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="80" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="81" customWidth="1"/>
-    <col min="23" max="29" width="4.83203125" style="80" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="81" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="80"/>
+    <col min="1" max="2" width="4.875" style="80" customWidth="1"/>
+    <col min="3" max="5" width="4.875" style="81" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="80" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="81" customWidth="1"/>
+    <col min="8" max="11" width="4.875" style="80" customWidth="1"/>
+    <col min="12" max="13" width="4.875" style="81" customWidth="1"/>
+    <col min="14" max="15" width="4.875" style="80" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="81" customWidth="1"/>
+    <col min="17" max="21" width="4.875" style="80" customWidth="1"/>
+    <col min="22" max="22" width="4.875" style="81" customWidth="1"/>
+    <col min="23" max="29" width="4.875" style="80" customWidth="1"/>
+    <col min="30" max="31" width="4.875" style="81" customWidth="1"/>
+    <col min="32" max="16384" width="4.875" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158" t="s">
         <v>12</v>
       </c>
@@ -14988,7 +14968,7 @@
       <c r="AV1" s="40"/>
       <c r="AW1" s="40"/>
     </row>
-    <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>15</v>
       </c>
@@ -15049,7 +15029,7 @@
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
     </row>
-    <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
         <v>17</v>
       </c>
@@ -15111,7 +15091,7 @@
       <c r="AV3" s="77"/>
       <c r="AW3" s="77"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="34"/>
@@ -15163,12 +15143,12 @@
       <c r="AW4" s="38"/>
       <c r="AX4" s="38"/>
     </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="F6" s="81"/>
@@ -15180,7 +15160,7 @@
       <c r="R6" s="81"/>
       <c r="S6" s="81"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="F7" s="81"/>
@@ -15192,7 +15172,7 @@
       <c r="R7" s="81"/>
       <c r="S7" s="81"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="F8" s="81"/>
@@ -15204,7 +15184,7 @@
       <c r="R8" s="81"/>
       <c r="S8" s="81"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="F9" s="81"/>
@@ -15216,9 +15196,9 @@
       <c r="R9" s="81"/>
       <c r="S9" s="81"/>
     </row>
-    <row r="10" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
       <c r="F12" s="81"/>
@@ -15230,7 +15210,7 @@
       <c r="R12" s="81"/>
       <c r="S12" s="81"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
       <c r="F13" s="81"/>
@@ -15242,8 +15222,8 @@
       <c r="R13" s="81"/>
       <c r="S13" s="81"/>
     </row>
-    <row r="14" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
       <c r="F15" s="81"/>
@@ -15255,8 +15235,8 @@
       <c r="R15" s="81"/>
       <c r="S15" s="81"/>
     </row>
-    <row r="16" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="F17" s="81"/>
@@ -15268,7 +15248,7 @@
       <c r="R17" s="81"/>
       <c r="S17" s="81"/>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="F18" s="81"/>
@@ -15281,7 +15261,7 @@
       <c r="S18" s="81"/>
       <c r="Z18" s="82"/>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
       <c r="F19" s="81"/>
@@ -15294,7 +15274,7 @@
       <c r="S19" s="81"/>
       <c r="Z19" s="82"/>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
       <c r="F20" s="81"/>
@@ -15307,7 +15287,7 @@
       <c r="S20" s="81"/>
       <c r="Z20" s="82"/>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
       <c r="F21" s="81"/>
@@ -15320,7 +15300,7 @@
       <c r="S21" s="81"/>
       <c r="Z21" s="82"/>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
       <c r="F22" s="81"/>
@@ -15333,7 +15313,7 @@
       <c r="S22" s="81"/>
       <c r="Z22" s="82"/>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
       <c r="F23" s="81"/>
@@ -15346,7 +15326,7 @@
       <c r="S23" s="81"/>
       <c r="Z23" s="82"/>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
       <c r="F24" s="81"/>
@@ -15359,7 +15339,7 @@
       <c r="S24" s="81"/>
       <c r="Z24" s="82"/>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
       <c r="F25" s="81"/>
@@ -15372,7 +15352,7 @@
       <c r="S25" s="81"/>
       <c r="Z25" s="82"/>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
       <c r="F26" s="81"/>
@@ -15385,7 +15365,7 @@
       <c r="S26" s="81"/>
       <c r="Z26" s="82"/>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
       <c r="F27" s="81"/>
@@ -15398,7 +15378,7 @@
       <c r="S27" s="81"/>
       <c r="Z27" s="82"/>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C28" s="80"/>
       <c r="D28" s="80"/>
       <c r="F28" s="81"/>
@@ -15411,7 +15391,7 @@
       <c r="S28" s="81"/>
       <c r="Z28" s="82"/>
     </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
       <c r="F29" s="81"/>
@@ -15424,7 +15404,7 @@
       <c r="S29" s="81"/>
       <c r="Z29" s="82"/>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
       <c r="F30" s="81"/>
@@ -15437,7 +15417,7 @@
       <c r="S30" s="81"/>
       <c r="Z30" s="82"/>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
       <c r="F31" s="81"/>
@@ -15450,7 +15430,7 @@
       <c r="S31" s="81"/>
       <c r="Z31" s="82"/>
     </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="F32" s="81"/>
@@ -15463,7 +15443,7 @@
       <c r="S32" s="81"/>
       <c r="Z32" s="82"/>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C33" s="80"/>
       <c r="D33" s="80"/>
       <c r="F33" s="81"/>
@@ -15476,7 +15456,7 @@
       <c r="S33" s="81"/>
       <c r="Z33" s="82"/>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
       <c r="F34" s="81"/>
@@ -15489,7 +15469,7 @@
       <c r="S34" s="81"/>
       <c r="Z34" s="82"/>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="F35" s="81"/>
@@ -15502,7 +15482,7 @@
       <c r="S35" s="81"/>
       <c r="Z35" s="82"/>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C36" s="80"/>
       <c r="D36" s="80"/>
       <c r="F36" s="81"/>
@@ -15515,7 +15495,7 @@
       <c r="S36" s="81"/>
       <c r="Z36" s="82"/>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C37" s="80"/>
       <c r="D37" s="80"/>
       <c r="F37" s="81"/>
@@ -15528,7 +15508,7 @@
       <c r="S37" s="81"/>
       <c r="Z37" s="82"/>
     </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C38" s="80"/>
       <c r="D38" s="80"/>
       <c r="F38" s="81"/>
@@ -15541,7 +15521,7 @@
       <c r="S38" s="81"/>
       <c r="Z38" s="82"/>
     </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C39" s="80"/>
       <c r="D39" s="80"/>
       <c r="F39" s="81"/>
@@ -15554,7 +15534,7 @@
       <c r="S39" s="81"/>
       <c r="Z39" s="82"/>
     </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C40" s="80"/>
       <c r="D40" s="80"/>
       <c r="F40" s="81"/>
@@ -15567,7 +15547,7 @@
       <c r="S40" s="81"/>
       <c r="Z40" s="82"/>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
       <c r="F41" s="81"/>
@@ -15580,7 +15560,7 @@
       <c r="S41" s="81"/>
       <c r="Z41" s="82"/>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="F42" s="81"/>
@@ -15593,7 +15573,7 @@
       <c r="S42" s="81"/>
       <c r="Z42" s="82"/>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="F43" s="81"/>
@@ -15606,7 +15586,7 @@
       <c r="S43" s="81"/>
       <c r="Z43" s="82"/>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="F44" s="81"/>
@@ -15619,7 +15599,7 @@
       <c r="S44" s="81"/>
       <c r="Z44" s="82"/>
     </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="F45" s="81"/>
@@ -15632,7 +15612,7 @@
       <c r="S45" s="81"/>
       <c r="Z45" s="82"/>
     </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C46" s="80"/>
       <c r="D46" s="80"/>
       <c r="F46" s="81"/>
@@ -15645,7 +15625,7 @@
       <c r="S46" s="81"/>
       <c r="Z46" s="82"/>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="F47" s="81"/>
@@ -15658,7 +15638,7 @@
       <c r="S47" s="81"/>
       <c r="Z47" s="82"/>
     </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="F48" s="81"/>
@@ -15671,7 +15651,7 @@
       <c r="S48" s="81"/>
       <c r="Z48" s="82"/>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C49" s="80"/>
       <c r="D49" s="80"/>
       <c r="F49" s="81"/>
@@ -15684,7 +15664,7 @@
       <c r="S49" s="81"/>
       <c r="Z49" s="82"/>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C50" s="80"/>
       <c r="D50" s="80"/>
       <c r="F50" s="81"/>
@@ -15697,7 +15677,7 @@
       <c r="S50" s="81"/>
       <c r="Z50" s="82"/>
     </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="F51" s="81"/>
@@ -15710,7 +15690,7 @@
       <c r="S51" s="81"/>
       <c r="Z51" s="82"/>
     </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="F52" s="81"/>
@@ -15723,7 +15703,7 @@
       <c r="S52" s="81"/>
       <c r="Z52" s="82"/>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C53" s="80"/>
       <c r="D53" s="80"/>
       <c r="F53" s="81"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC8109-A9CB-4CC3-9F85-E33509910FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CDDFB-AA54-4D2F-A548-D029AF6F79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="3315" windowWidth="24045" windowHeight="10260" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="585" windowWidth="20220" windowHeight="12150" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -13,15 +13,17 @@
     <sheet name="Contents" sheetId="36" r:id="rId3"/>
     <sheet name="1. Login (A101)" sheetId="37" r:id="rId4"/>
     <sheet name="2. Project management (A102)" sheetId="38" r:id="rId5"/>
+    <sheet name="3. Common (A103)" sheetId="39" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. Login (A101)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Project management (A102)'!$A$1:$AI$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. Common (A103)'!$A$1:$AI$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. Login (A101)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Project management (A102)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. Common (A103)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
   </definedNames>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>No.</t>
   </si>
@@ -193,6 +195,113 @@
     </r>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>3. Common (A103)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Modify</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version 
+1.1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version 
+1.2</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version 
+1.3</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1. Login (A101)
+2. Project management (A102)
+3. Common (A103)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add project update process.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add project saerch process / project registration process.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eliminated the logout screen and integrated it into the logout process.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Unify object fonts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3. Add common (A103) (TOP menu, moving generic errors).</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +311,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -444,6 +553,18 @@
       <color indexed="55"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1018,7 +1139,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1170,7 +1291,150 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,6 +1455,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1201,6 +1474,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,11 +1518,14 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1257,14 +1536,11 @@
     <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1291,146 +1567,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2093,15 +2229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2116,7 +2252,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5486400"/>
+          <a:off x="4429125" y="5038725"/>
           <a:ext cx="4933950" cy="2286000"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -3249,170 +3385,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="AutoShape 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2838450" y="1181100"/>
-          <a:ext cx="2486025" cy="1457325"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" sz="900">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3124200" y="1000125"/>
-          <a:ext cx="1485900" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>WA10103/TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> Menu</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -3422,7 +3394,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>206620</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3440,8 +3412,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2455985" y="1871296"/>
-          <a:ext cx="2483827" cy="0"/>
+          <a:off x="2438400" y="1752600"/>
+          <a:ext cx="2464045" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3678,427 +3650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158996</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="AutoShape 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4449417" y="1160393"/>
-          <a:ext cx="2459935" cy="1434548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" sz="900">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Rectangle 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4581525" y="3000375"/>
-          <a:ext cx="1485900" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>WA10104/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Generic error</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>159091</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>56067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>102672</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>140328</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4532308" y="2772763"/>
-          <a:ext cx="763560" cy="225065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Logout</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="AutoShape 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="896178" y="3413263"/>
-          <a:ext cx="2459935" cy="1434548"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFFF">
-            <a:alpha val="59999"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="15875" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="33CCCC"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" sz="900">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Rectangle 271">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4732268" y="3375163"/>
-          <a:ext cx="1471406" cy="205409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>WA10102/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> Logout</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53837</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4110,14 +3671,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="137" idx="0"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="118" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="2901590" y="1427730"/>
-          <a:ext cx="1837082" cy="3159370"/>
+        <a:xfrm rot="10800000">
+          <a:off x="3197471" y="2313956"/>
+          <a:ext cx="1707905" cy="621"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4140,125 +3702,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158995</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219320</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84484</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="カギ線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="3"/>
-          <a:endCxn id="108" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5946468" y="1807266"/>
-          <a:ext cx="12700" cy="2401957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 9821740"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="正方形/長方形 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000089000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2095500" y="3925956"/>
-          <a:ext cx="289892" cy="207065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ja-JP" sz="1100">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84483</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4275,8 +3728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4853163" y="3927614"/>
-          <a:ext cx="1093305" cy="563217"/>
+          <a:off x="2092570" y="2199034"/>
+          <a:ext cx="1104900" cy="229841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4311,10 +3764,10 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Logout [</a:t>
+            <a:t>Logout </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4322,19 +3775,16 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>WA1010201</a:t>
+            <a:t>process</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4342,16 +3792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206619</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84485</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27956</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4368,15 +3818,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1299923" y="2088875"/>
-          <a:ext cx="568633" cy="2120349"/>
+        <a:xfrm rot="10800000">
+          <a:off x="1885950" y="2057401"/>
+          <a:ext cx="206620" cy="256555"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -94096"/>
-            <a:gd name="adj2" fmla="val 56641"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
@@ -4394,16 +3841,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>240197</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>75945</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>202097</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19402</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4420,8 +3867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="786849" y="2792641"/>
-          <a:ext cx="1043608" cy="225065"/>
+          <a:off x="1030772" y="2314320"/>
+          <a:ext cx="1055203" cy="248257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4477,264 +3924,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>59700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>3282</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107198</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6072874" y="1613198"/>
-          <a:ext cx="763560" cy="225065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Error occurred</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57957</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>74542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57957</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000096000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="153" idx="0"/>
-          <a:endCxn id="151" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="5797805" y="2087216"/>
-          <a:ext cx="0" cy="1838740"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>74542</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="正方形/長方形 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000097000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657000" y="1847021"/>
-          <a:ext cx="281609" cy="240195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ja-JP" sz="1100">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="正方形/長方形 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657000" y="3925956"/>
-          <a:ext cx="281609" cy="240195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ja-JP" sz="1100">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4751,8 +3950,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4939812" y="1578219"/>
-          <a:ext cx="1113693" cy="586154"/>
+          <a:off x="4902445" y="1590675"/>
+          <a:ext cx="1104900" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4787,7 +3986,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>TOP</a:t>
+            <a:t>Common/TOP</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" sz="900">
@@ -4798,29 +3997,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> Menu [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>WA1010301</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>]</a:t>
+            <a:t> Menu </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4830,22 +4007,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84484</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84483</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Rectangle 274">
+        <xdr:cNvPr id="49" name="Rectangle 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74676E75-8351-49E9-9280-05B7B50F8E9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4855,8 +4032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4853163" y="3927614"/>
-          <a:ext cx="1093305" cy="563217"/>
+          <a:off x="4905375" y="2105026"/>
+          <a:ext cx="1104900" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4883,17 +4060,6 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Generic error [</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -4902,102 +4068,16 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>WA1010401</a:t>
+            <a:t>When the header log out button is clicked</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>173170</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>113853</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>46735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5421445" y="3303678"/>
-          <a:ext cx="769358" cy="248257"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Return</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9634,52 +8714,6 @@
                   <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Update</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPts val="1100"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> failed</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>/</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
                     <a:effectLst/>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -9892,6 +8926,2696 @@
             <a:ea typeface="ＭＳ 明朝"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274754</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDC35F1-0A10-4B00-93E9-2315B3C81261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2283798" y="2107228"/>
+          <a:ext cx="641107" cy="4732454"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241382</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>126916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E555FCD-DA27-4B3C-AA2A-AEC8A083728D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="241382" y="6219825"/>
+          <a:ext cx="1711243" cy="3091"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239193</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>62439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239193</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線コネクタ 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9864598-45F5-4755-8074-E94E55FC6651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="239193" y="4786839"/>
+          <a:ext cx="0" cy="1439365"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>221585</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7736A00-B373-457C-8CEB-549C6DA029D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781050" y="6276975"/>
+          <a:ext cx="1374110" cy="331483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Return</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570A2D86-805C-4488-AF28-5A37F92FEA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1181100" y="1533525"/>
+          <a:ext cx="1276350" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>When login authentication is successful</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A23B4A-D099-42C0-9130-A6106C27BDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4419600" y="5057775"/>
+          <a:ext cx="4933950" cy="2286000"/>
+          <a:chOff x="4143375" y="7905750"/>
+          <a:chExt cx="4895850" cy="2152649"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFEF8FF-7189-40C5-9975-7A277C95D3BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4313877" y="8806655"/>
+            <a:ext cx="706366" cy="391391"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>AAA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="900"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>[BBB]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6649ADD-0B7A-4937-91D8-E7012D42BAF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4143375" y="7905750"/>
+            <a:ext cx="4895850" cy="2152649"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404E56BD-DCFA-4138-BDD9-2E9ECD96A76D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4208328" y="8028059"/>
+            <a:ext cx="649532" cy="212003"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>[Legend]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967809D9-3D8C-4216-AD41-D96DEC48B4A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6863292" y="8272520"/>
+            <a:ext cx="576460" cy="171232"/>
+            <a:chOff x="4124325" y="10129786"/>
+            <a:chExt cx="676275" cy="200024"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Line 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63A5306-6BD4-4D86-8FA3-90F9597E325E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeShapeType="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm flipV="1">
+              <a:off x="4124325" y="10325100"/>
+              <a:ext cx="676275" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd type="triangle" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Text Box 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ACD667-CAF6-4A3F-901D-B283DAE05169}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4230747" y="10129786"/>
+              <a:ext cx="409575" cy="200024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:r>
+                <a:rPr lang="ja-JP" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="ＭＳ 明朝"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>CCC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD2BA4C-C140-457F-9822-EC29072E6A5E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5093315" y="8658226"/>
+            <a:ext cx="1455598" cy="702900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Represents the </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>display screen (main window).</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr sz="900">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>AAA: Screen name</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>BBB: Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F36826D-E060-4175-B7E0-DE7126BBD5AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7861948" y="8292955"/>
+            <a:ext cx="1158227" cy="500763"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Indicates a screen transition. </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>CCC: Button/link name</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Oval 297">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478AD841-A784-4D34-B045-89CAEDE13D75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4581809" y="8350032"/>
+            <a:ext cx="170502" cy="171233"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:ln w="9525" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Text Box 298">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216A68A9-69D1-42D9-9A98-8E259C5E2F58}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5093316" y="8291434"/>
+            <a:ext cx="1047371" cy="297894"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Represents the top screen.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="AutoShape 304">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EB1E69-6AA9-4CBB-AF2C-8E0324D36436}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6668432" y="8888195"/>
+            <a:ext cx="1079848" cy="301697"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CCFFFF">
+              <a:alpha val="59999"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="15875" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="33CCCC"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 305">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B332BF-BC88-414B-8155-8642DC5618EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6896100" y="8739901"/>
+            <a:ext cx="733425" cy="107633"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>DDD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>EEE</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Text Box 311">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7080665B-B8C4-433B-B56C-F2E0D910A446}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7861947" y="8814809"/>
+            <a:ext cx="1158227" cy="1055233"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>The description range of the </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>screen design document.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr sz="900">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>DDD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>: Screen design document ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>EEE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Screen design document name</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 316">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE4DEBE-7125-4469-86D3-877C8C76C157}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4313877" y="9352971"/>
+            <a:ext cx="706366" cy="391391"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="45720" rIns="36000" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>AAA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="900"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>[BBB]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Text Box 317">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BFE870-79E0-4126-B145-ED8A0F8C2E25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5093316" y="9352971"/>
+            <a:ext cx="1428971" cy="676854"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36000" tIns="8890" rIns="36000" bIns="8890" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Represents the display screen (sub-window). </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>AAA: Screen name</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>BBB: Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0"/>
+            <a:endParaRPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAFEDEB-19E8-474C-ABDF-E2D8AD6B0791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="1047750"/>
+          <a:ext cx="2486025" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A03B4E6-9F4E-4A35-9A12-6AFE0E45BF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4781550" y="857250"/>
+          <a:ext cx="1485900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA10301/TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>206620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A2CCEB-3EDE-4FC5-ADD3-F60591271A1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="1747838"/>
+          <a:ext cx="2444995" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870B9FCA-0F8F-4256-AFD1-2DE9A638C136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="3295650"/>
+          <a:ext cx="2486025" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF">
+            <a:alpha val="59999"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="15875" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="33CCCC"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC39E5F4-616D-4A51-AE92-252C1FB01373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4581525" y="3114675"/>
+          <a:ext cx="1485900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA10302/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Generic error</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44791</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>264597</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427D46E2-D663-410F-BCB0-807E90F76A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4740616" y="2180142"/>
+          <a:ext cx="772256" cy="236661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>206621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EF611B-D9E3-4B9B-A636-37693C17E01F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="35" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3785033" y="720292"/>
+          <a:ext cx="332755" cy="3006970"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>206620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF742B7C-523F-4262-8566-270ECDF818A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="43" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6007345" y="1752600"/>
+          <a:ext cx="12700" cy="2256184"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82795</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1812F0D9-59D4-473B-938F-3741D7F73A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1187695" y="2199034"/>
+          <a:ext cx="1260230" cy="382241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>To logout process at Login(A101)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>59700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3282</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B20176-4315-4789-81AF-5890A2B80E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6136650" y="1546937"/>
+          <a:ext cx="772257" cy="236661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Error occurred</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57957</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57957</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2A1B00-EE97-48AD-B83D-0FA778F10BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5858682" y="2055742"/>
+          <a:ext cx="0" cy="1989484"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190478</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198761</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF2A821-796D-47DD-AFFD-E272162970ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5714978" y="1792356"/>
+          <a:ext cx="284508" cy="263386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190478</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198761</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E061F1E8-8336-4666-9E23-B91ACD4A2076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5714978" y="4045226"/>
+          <a:ext cx="284508" cy="263386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="400000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>206620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>206620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06E8E51-CA75-4DD2-B06E-532B1A01F6F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4902445" y="1447800"/>
+          <a:ext cx="1104900" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Menu [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA1030101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>206620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>206620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F53526F-FEF9-4A46-991E-44F4216BFA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4902445" y="3703984"/>
+          <a:ext cx="1104900" cy="609599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Generic error [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA1030201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>173170</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>113853</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC603CDD-661C-4C6B-86D9-50035DE6C050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5421445" y="3417978"/>
+          <a:ext cx="769358" cy="248257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Return</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10305,12 +12029,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="69">
+      <c r="I25" s="79">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>43595</v>
+        <v>44796</v>
       </c>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
@@ -10910,57 +12634,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="84" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="70" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="98" t="str">
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="129">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="111">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="131"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="113"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
@@ -10968,53 +12692,53 @@
       <c r="AN1" s="18"/>
     </row>
     <row r="2" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="70" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="129" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="111">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="131"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="113"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
@@ -11022,1103 +12746,1145 @@
       <c r="AN2" s="17"/>
     </row>
     <row r="3" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="131"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="113"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
       <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="135" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="136" t="s">
+    <row r="5" spans="1:40" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="138"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-    </row>
-    <row r="6" spans="1:40" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N6" s="140"/>
-      <c r="AA6" s="137"/>
-      <c r="AB6" s="137"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="137"/>
-      <c r="AH6" s="137"/>
-      <c r="AI6" s="137"/>
-    </row>
-    <row r="7" spans="1:40" s="141" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+    </row>
+    <row r="6" spans="1:40" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="76"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+    </row>
+    <row r="7" spans="1:40" s="77" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="114" t="s">
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="114" t="s">
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="114" t="s">
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="115"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="114" t="s">
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="117"/>
+      <c r="AD7" s="117"/>
+      <c r="AE7" s="118"/>
+      <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="116"/>
-    </row>
-    <row r="8" spans="1:40" s="141" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="117">
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="118"/>
+    </row>
+    <row r="8" spans="1:40" s="77" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="70">
         <v>1</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="142">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43595</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="126" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="123" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="125"/>
-    </row>
-    <row r="9" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="157"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="154"/>
-    </row>
-    <row r="10" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="157"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="154"/>
-    </row>
-    <row r="11" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="145"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="157"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="153"/>
-      <c r="AI11" s="154"/>
-    </row>
-    <row r="12" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="145"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="156"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="152"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="154"/>
-    </row>
-    <row r="13" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="145"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="156"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="153"/>
-      <c r="AH13" s="153"/>
-      <c r="AI13" s="154"/>
-    </row>
-    <row r="14" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="156"/>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="156"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="157"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="154"/>
-    </row>
-    <row r="15" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="145"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="154"/>
-    </row>
-    <row r="16" spans="1:40" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="145"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="152"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="153"/>
-      <c r="AI16" s="154"/>
-    </row>
-    <row r="17" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="156"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="152"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="153"/>
-      <c r="AI17" s="154"/>
-    </row>
-    <row r="18" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="145"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="152"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="153"/>
-      <c r="AI18" s="154"/>
-    </row>
-    <row r="19" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="156"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="152"/>
-      <c r="AG19" s="153"/>
-      <c r="AH19" s="153"/>
-      <c r="AI19" s="154"/>
-    </row>
-    <row r="20" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="145"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="152"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="154"/>
-    </row>
-    <row r="21" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="156"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="152"/>
-      <c r="AG21" s="153"/>
-      <c r="AH21" s="153"/>
-      <c r="AI21" s="154"/>
-    </row>
-    <row r="22" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="145"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="152"/>
-      <c r="AG22" s="153"/>
-      <c r="AH22" s="153"/>
-      <c r="AI22" s="154"/>
-    </row>
-    <row r="23" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="145"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="157"/>
-      <c r="AF23" s="152"/>
-      <c r="AG23" s="153"/>
-      <c r="AH23" s="153"/>
-      <c r="AI23" s="154"/>
-    </row>
-    <row r="24" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="157"/>
-      <c r="AF24" s="152"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
-      <c r="AI24" s="154"/>
-    </row>
-    <row r="25" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="152"/>
-      <c r="AG25" s="153"/>
-      <c r="AH25" s="153"/>
-      <c r="AI25" s="154"/>
-    </row>
-    <row r="26" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="145"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="152"/>
-      <c r="AG26" s="153"/>
-      <c r="AH26" s="153"/>
-      <c r="AI26" s="154"/>
-    </row>
-    <row r="27" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="156"/>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="156"/>
-      <c r="Z27" s="156"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="156"/>
-      <c r="AE27" s="157"/>
-      <c r="AF27" s="152"/>
-      <c r="AG27" s="153"/>
-      <c r="AH27" s="153"/>
-      <c r="AI27" s="154"/>
-    </row>
-    <row r="28" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="157"/>
-      <c r="AF28" s="152"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="154"/>
-    </row>
-    <row r="29" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="152"/>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="153"/>
-      <c r="AI29" s="154"/>
-    </row>
-    <row r="30" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="152"/>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="153"/>
-      <c r="AI30" s="154"/>
-    </row>
-    <row r="31" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="152"/>
-      <c r="AG31" s="153"/>
-      <c r="AH31" s="153"/>
-      <c r="AI31" s="154"/>
-    </row>
-    <row r="32" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="145"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="154"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="156"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="152"/>
-      <c r="AG32" s="153"/>
-      <c r="AH32" s="153"/>
-      <c r="AI32" s="154"/>
-    </row>
-    <row r="33" spans="1:35" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="154"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="152"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="153"/>
-      <c r="AI33" s="154"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
+    </row>
+    <row r="9" spans="1:40" s="77" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="78">
+        <v>2</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="93">
+        <v>43803</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="85"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="88"/>
+    </row>
+    <row r="10" spans="1:40" s="77" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="78">
+        <v>3</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="93">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="88"/>
+    </row>
+    <row r="11" spans="1:40" s="77" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="78">
+        <v>4</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="93">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="88"/>
+    </row>
+    <row r="12" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="88"/>
+    </row>
+    <row r="13" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="88"/>
+    </row>
+    <row r="14" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="88"/>
+    </row>
+    <row r="15" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="78"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="88"/>
+    </row>
+    <row r="16" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="88"/>
+    </row>
+    <row r="17" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="78"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="88"/>
+    </row>
+    <row r="18" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="88"/>
+    </row>
+    <row r="19" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="88"/>
+    </row>
+    <row r="20" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="78"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="88"/>
+    </row>
+    <row r="21" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="78"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="88"/>
+    </row>
+    <row r="22" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="78"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="88"/>
+    </row>
+    <row r="23" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="78"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="91"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="88"/>
+    </row>
+    <row r="24" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="78"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="91"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="88"/>
+    </row>
+    <row r="25" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="78"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="91"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="88"/>
+    </row>
+    <row r="26" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="78"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="91"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="88"/>
+    </row>
+    <row r="27" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="78"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="91"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="88"/>
+    </row>
+    <row r="28" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="78"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="91"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="88"/>
+    </row>
+    <row r="29" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="78"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="91"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="88"/>
+    </row>
+    <row r="30" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="78"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="91"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="88"/>
+    </row>
+    <row r="31" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="78"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="88"/>
+    </row>
+    <row r="32" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="78"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="91"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="88"/>
+    </row>
+    <row r="33" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="78"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="86"/>
+      <c r="AG33" s="87"/>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -12458,163 +14224,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="str">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="84" t="str">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="137" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="70" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="98" t="str">
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="95">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="str">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="70" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="95" t="str">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="97"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="str">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="98" t="str">
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="95" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -12885,7 +14651,9 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="26"/>
       <c r="D11" s="24"/>
       <c r="E11" s="26"/>
@@ -14170,59 +15938,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="str">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="101" t="str">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="70" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="98" t="str">
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="95">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="26"/>
       <c r="AN1" s="62"/>
       <c r="AO1" s="26"/>
@@ -14236,54 +16004,54 @@
       <c r="AW1" s="26"/>
     </row>
     <row r="2" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="str">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="70" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="95" t="str">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="97"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="26"/>
       <c r="AN2" s="62"/>
       <c r="AO2" s="26"/>
@@ -14297,52 +16065,52 @@
       <c r="AW2" s="26"/>
     </row>
     <row r="3" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="str">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="98" t="str">
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="95" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="64"/>
       <c r="AK3" s="65"/>
       <c r="AL3" s="65"/>
@@ -14814,59 +16582,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="str">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="101" t="str">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="70" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="98" t="str">
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="95">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="26"/>
       <c r="AN1" s="62"/>
       <c r="AO1" s="26"/>
@@ -14880,54 +16648,54 @@
       <c r="AW1" s="26"/>
     </row>
     <row r="2" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="str">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="70" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="95" t="str">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="97"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="26"/>
       <c r="AN2" s="62"/>
       <c r="AO2" s="26"/>
@@ -14941,52 +16709,52 @@
       <c r="AW2" s="26"/>
     </row>
     <row r="3" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="str">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="98" t="str">
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="95" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="64"/>
       <c r="AK3" s="65"/>
       <c r="AL3" s="65"/>
@@ -15652,4 +17420,648 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4626473F-E4AF-4E46-9729-107F9E424F3D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AX35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="4.83203125" style="66" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="67" customWidth="1"/>
+    <col min="8" max="11" width="4.83203125" style="66" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="67" customWidth="1"/>
+    <col min="14" max="15" width="4.83203125" style="66" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="67" customWidth="1"/>
+    <col min="17" max="21" width="4.83203125" style="66" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="67" customWidth="1"/>
+    <col min="23" max="27" width="4.83203125" style="66" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="66" customWidth="1"/>
+    <col min="29" max="29" width="4.83203125" style="66" customWidth="1"/>
+    <col min="30" max="31" width="4.83203125" style="67" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
+        <v>Sample Project</v>
+      </c>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="154" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
+        <v>Screen Transition Diagram</v>
+      </c>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="146" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
+        <v>43595</v>
+      </c>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
+      <c r="AJ1" s="26"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+    </row>
+    <row r="2" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
+        <v>Sample System</v>
+      </c>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="146" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="26"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+    </row>
+    <row r="3" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
+        <v>Project Management System</v>
+      </c>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="146" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+    </row>
+    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+    </row>
+    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="I7" s="67"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+    </row>
+    <row r="10" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+    </row>
+    <row r="14" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+    </row>
+    <row r="16" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="68"/>
+      <c r="P18" s="66"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="Z18" s="68"/>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+    </row>
+    <row r="22" spans="3:31" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66"/>
+      <c r="I24" s="67"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="I25" s="67"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="I26" s="67"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+    </row>
+    <row r="27" spans="3:31" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="F28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+    </row>
+    <row r="29" spans="3:31" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="66"/>
+      <c r="I30" s="67"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="F31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="66"/>
+      <c r="I32" s="67"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="F33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="66"/>
+      <c r="I34" s="67"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66"/>
+      <c r="I35" s="67"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="68"/>
+      <c r="P35" s="66"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="Z35" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CDDFB-AA54-4D2F-A548-D029AF6F79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413165F9-9DE8-4507-B383-3CD99805216A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="585" windowWidth="20220" windowHeight="12150" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
     <sheet name="Revision history" sheetId="35" r:id="rId2"/>
     <sheet name="Contents" sheetId="36" r:id="rId3"/>
-    <sheet name="1. Login (A101)" sheetId="37" r:id="rId4"/>
+    <sheet name="1. Authentication (A101)" sheetId="37" r:id="rId4"/>
     <sheet name="2. Project management (A102)" sheetId="38" r:id="rId5"/>
     <sheet name="3. Common (A103)" sheetId="39" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Project management (A102)'!$A$1:$AI$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. Common (A103)'!$A$1:$AI$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. Common (A103)'!$A$1:$AI$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. Login (A101)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. Authentication (A101)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Project management (A102)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. Common (A103)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>No.</t>
   </si>
@@ -51,9 +49,6 @@
   </si>
   <si>
     <t>TIS</t>
-  </si>
-  <si>
-    <t>1. Login (A101)</t>
   </si>
   <si>
     <t>2. Project management (A102)</t>
@@ -219,12 +214,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>1. Login (A101)
-2. Project management (A102)
-3. Common (A103)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>TIS</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -237,40 +226,24 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>1. Authentication (A101)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Contents
+1. Login (A101)
+2. Project management (A102)
+3. Common (A103)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version 1.3</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Eliminated the logout screen and integrated it into the logout process.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Unify object fonts</t>
+      <t>Eliminated the logout screen and integrated it into the logout process.
+Unify object fonts</t>
     </r>
     <r>
       <rPr>
@@ -280,25 +253,7 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3. Add common (A103) (TOP menu, moving generic errors).</t>
+3. Add common (A103) (TOP menu, moving generic errors).</t>
     </r>
     <phoneticPr fontId="8"/>
   </si>
@@ -311,7 +266,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -556,13 +511,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐ明朝"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Times New Roman"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="BIZ UDP明朝 Medium"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1139,7 +1101,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1320,213 +1282,210 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1569,6 +1528,118 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - アクセント 1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1979,8 +2050,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1997,8 +2068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2838450" y="1181100"/>
-          <a:ext cx="2486025" cy="1457325"/>
+          <a:off x="903371" y="1035718"/>
+          <a:ext cx="2481513" cy="1771650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2126,8 +2197,27 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> Login</a:t>
+            <a:t> </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Authentication</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3650,16 +3740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>158996</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8603</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>27956</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
+      <xdr:rowOff>29208</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3677,9 +3767,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000">
-          <a:off x="3197471" y="2313956"/>
-          <a:ext cx="1707905" cy="621"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3323303" y="2314575"/>
+          <a:ext cx="1582073" cy="633"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3702,16 +3792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>158995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>65434</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8601</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>158995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8602</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3728,8 +3818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2092570" y="2199034"/>
-          <a:ext cx="1104900" cy="229841"/>
+          <a:off x="2218401" y="2106793"/>
+          <a:ext cx="1104901" cy="416832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3777,6 +3867,40 @@
             </a:rPr>
             <a:t>process</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA1010101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" sz="900">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -3793,15 +3917,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>158995</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8602</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>27956</xdr:rowOff>
+      <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3819,8 +3943,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000">
-          <a:off x="1885950" y="2057401"/>
-          <a:ext cx="206620" cy="256555"/>
+          <a:off x="1885951" y="2057401"/>
+          <a:ext cx="332451" cy="257809"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9299,15 +9423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>153591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>153591</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9322,7 +9446,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5057775"/>
+          <a:off x="4467225" y="7621191"/>
           <a:ext cx="4933950" cy="2286000"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -10455,14 +10579,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16675</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16675</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -10481,8 +10605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4495800" y="1047750"/>
-          <a:ext cx="2486025" cy="1562100"/>
+          <a:off x="3302800" y="1062038"/>
+          <a:ext cx="2464594" cy="1588293"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10519,14 +10643,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -10545,8 +10669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4781550" y="857250"/>
-          <a:ext cx="1485900" cy="228600"/>
+          <a:off x="3586169" y="869156"/>
+          <a:ext cx="1473994" cy="233363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10625,8 +10749,8 @@
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147095</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -10646,8 +10770,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2457450" y="1747838"/>
-          <a:ext cx="2444995" cy="4762"/>
+          <a:off x="2438400" y="1774032"/>
+          <a:ext cx="1268664" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10668,16 +10792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94066</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>94066</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10694,8 +10818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4495800" y="3295650"/>
-          <a:ext cx="2486025" cy="1562100"/>
+          <a:off x="3106347" y="5095875"/>
+          <a:ext cx="2464594" cy="1585913"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10732,16 +10856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179791</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>10722</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10758,8 +10882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4581525" y="3114675"/>
-          <a:ext cx="1485900" cy="228600"/>
+          <a:off x="3192072" y="4912519"/>
+          <a:ext cx="1473994" cy="230981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10832,16 +10956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>44791</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>46542</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68610</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>264597</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130803</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102228</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10858,8 +10982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4740616" y="2180142"/>
-          <a:ext cx="772256" cy="236661"/>
+          <a:off x="2830860" y="2456367"/>
+          <a:ext cx="774637" cy="236661"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10916,15 +11040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>206621</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147096</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104154</xdr:rowOff>
+      <xdr:rowOff>104156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10943,62 +11067,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="3785033" y="720292"/>
-          <a:ext cx="332755" cy="3006970"/>
+          <a:off x="3173055" y="1344177"/>
+          <a:ext cx="337518" cy="1825877"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>46384</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF742B7C-523F-4262-8566-270ECDF818A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="3"/>
-          <a:endCxn id="43" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6007345" y="1752600"/>
-          <a:ext cx="12700" cy="2256184"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
-          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
@@ -11095,16 +11168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>59700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22937</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>172816</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>3282</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107198</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>74726</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11121,8 +11194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6136650" y="1546937"/>
-          <a:ext cx="772257" cy="236661"/>
+          <a:off x="7292754" y="6029640"/>
+          <a:ext cx="765113" cy="239042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11178,63 +11251,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57957</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>74542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57957</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2A1B00-EE97-48AD-B83D-0FA778F10BAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="0"/>
-          <a:endCxn id="40" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="5858682" y="2055742"/>
-          <a:ext cx="0" cy="1989484"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130953</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139236</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>74542</xdr:rowOff>
     </xdr:to>
@@ -11251,8 +11275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5714978" y="1792356"/>
-          <a:ext cx="284508" cy="263386"/>
+          <a:off x="4512453" y="1818550"/>
+          <a:ext cx="282127" cy="268148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11285,16 +11309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208344</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>216627</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11309,8 +11333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5714978" y="4045226"/>
-          <a:ext cx="284508" cy="263386"/>
+          <a:off x="4316000" y="5857358"/>
+          <a:ext cx="282127" cy="268148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11343,14 +11367,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147095</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>147095</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -11369,8 +11393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4902445" y="1447800"/>
-          <a:ext cx="1104900" cy="609600"/>
+          <a:off x="3707064" y="1469231"/>
+          <a:ext cx="1095375" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11447,16 +11471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46384</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224486</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>206620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>46383</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224486</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11473,8 +11497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4902445" y="3703984"/>
-          <a:ext cx="1104900" cy="609599"/>
+          <a:off x="3510611" y="5511353"/>
+          <a:ext cx="1095375" cy="619124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11540,16 +11564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>173170</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>65178</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196988</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>113853</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>8635</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137672</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11566,8 +11590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5421445" y="3417978"/>
-          <a:ext cx="769358" cy="248257"/>
+          <a:off x="2661582" y="5851616"/>
+          <a:ext cx="762215" cy="253019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11606,6 +11630,1200 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>255985</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>176964</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71461</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06706B23-441C-47D4-8BDE-E857D7B68197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4637485" y="1602784"/>
+          <a:ext cx="1564042" cy="4195583"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60969</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A6AA76-2282-4290-A417-E4C64119FD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7180907" y="2087880"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project Search/WA10202</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60945</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB4CC5E-FBD4-49F1-AC8B-6D0BF7194AA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7180883" y="1381125"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project Registration</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>/WA10201</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>135485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60945</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551F24DD-CD7D-4834-B156-EFA111CBBB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4790829" y="1597125"/>
+          <a:ext cx="2390054" cy="5273"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>135485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60969</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5458FD-DBEB-4491-A7AC-89F1ECF89237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4790829" y="1602398"/>
+          <a:ext cx="2390078" cy="701482"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76776"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60969</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>131010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C09DD4-A5DC-4D33-BA47-7F3B27D938B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7180907" y="2794635"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Client Search</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60945</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB0FD72-C010-4F1F-A2B0-C7817090A556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7180883" y="3501390"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Client Registration</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60969</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C932EAD-8B68-4FFB-A425-922A78D5073A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7180907" y="4208144"/>
+          <a:ext cx="1104852" cy="488871"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Instructions for extracting engaged projects by user</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60945</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC6D0C4-F944-4279-BF88-B1642C0260AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7180883" y="4914900"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project Batch Registration</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>135485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60969</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69791</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC851AEC-E4E9-4EEA-835D-8AA01D098A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4790829" y="1602398"/>
+          <a:ext cx="2390078" cy="1408237"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76663"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>135485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60945</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFF4700-F85B-4C21-85E2-845CFE0FF29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4790829" y="1602398"/>
+          <a:ext cx="2390054" cy="2114992"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>135485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60969</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63863300-3BBA-4711-A2C5-05C885338635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4790829" y="1602398"/>
+          <a:ext cx="2390078" cy="2821747"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256929</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973EAB65-2405-462F-B8C0-E279A0001451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4638429" y="2303880"/>
+          <a:ext cx="3647330" cy="3634815"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256929</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1028352-483F-4C1C-89B0-F231A8D4C150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4638429" y="3010635"/>
+          <a:ext cx="3647330" cy="2928060"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256929</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE30B6-2D63-4490-BD8F-E3E8D84C102C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4638429" y="3717390"/>
+          <a:ext cx="3647355" cy="2221305"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256929</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D785875-E534-4736-BE19-0A82A2915D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4638429" y="4424145"/>
+          <a:ext cx="3647330" cy="1514550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6248"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256929</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B43010E-E763-45CA-B44A-DA24D60FE1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4638429" y="5130900"/>
+          <a:ext cx="3647355" cy="807795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>62385</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED344AAF-9334-4FA5-8AF6-A28C6B5CB38B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4792269" y="1595441"/>
+          <a:ext cx="2390054" cy="3528502"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203973</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F31FB8-A112-4E79-A325-0B80EC322328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1066801" y="5569743"/>
+          <a:ext cx="1346972" cy="324602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To logout process at Login(A101)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -11614,11 +12832,60 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Return</a:t>
+            <a:t> </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203973</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224486</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94009</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A41354-81D1-4055-8E7B-2DC0DF8F89BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="1"/>
+          <a:endCxn id="61" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2413773" y="5732044"/>
+          <a:ext cx="1125413" cy="765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12017,7 +13284,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="J23" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12634,57 +13901,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>9</v>
+      <c r="A1" s="88" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="128" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="137" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="115" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="111">
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="80">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="113"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="82"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
@@ -12692,53 +13959,53 @@
       <c r="AN1" s="18"/>
     </row>
     <row r="2" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
-        <v>10</v>
+      <c r="A2" s="88" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="s">
-        <v>17</v>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
+        <v>16</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="119" t="s">
-        <v>14</v>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="88" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="94" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="111">
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="80">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="113"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="82"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
@@ -12746,45 +14013,45 @@
       <c r="AN2" s="17"/>
     </row>
     <row r="3" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
+      <c r="A3" s="88" t="s">
+        <v>10</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="s">
-        <v>18</v>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="s">
+        <v>17</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="113"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="82"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -12793,7 +14060,7 @@
     </row>
     <row r="5" spans="1:40" s="71" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N5" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA5" s="73"/>
       <c r="AB5" s="73"/>
@@ -12821,1073 +14088,1229 @@
       <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="116" t="s">
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="116" t="s">
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="116" t="s">
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="117"/>
-      <c r="AE7" s="118"/>
-      <c r="AF7" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="118"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="87"/>
     </row>
     <row r="8" spans="1:40" s="77" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="70">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
-        <v>8</v>
+      <c r="B8" s="131" t="s">
+        <v>7</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133">
         <v>43595</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="141"/>
     </row>
     <row r="9" spans="1:40" s="77" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="78">
         <v>2</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>30</v>
+      <c r="B9" s="118" t="s">
+        <v>29</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="93">
+      <c r="C9" s="119"/>
+      <c r="D9" s="120">
         <v>43803</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="82" t="s">
-        <v>29</v>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123" t="s">
+        <v>28</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="86" t="s">
-        <v>7</v>
+      <c r="H9" s="124"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="125" t="s">
+        <v>6</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="86" t="s">
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="88"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
     </row>
     <row r="10" spans="1:40" s="77" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="78">
         <v>3</v>
       </c>
-      <c r="B10" s="92" t="s">
-        <v>31</v>
+      <c r="B10" s="118" t="s">
+        <v>30</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="93">
+      <c r="C10" s="119"/>
+      <c r="D10" s="120">
         <v>43895</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="80" t="s">
-        <v>29</v>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="145" t="s">
+        <v>28</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="86" t="s">
-        <v>7</v>
+      <c r="H10" s="124"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="125" t="s">
+        <v>6</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="89" t="s">
-        <v>35</v>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="128" t="s">
+        <v>33</v>
       </c>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="86" t="s">
-        <v>34</v>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="125" t="s">
+        <v>32</v>
       </c>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="88"/>
-    </row>
-    <row r="11" spans="1:40" s="77" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="127"/>
+    </row>
+    <row r="11" spans="1:40" s="77" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="78">
         <v>4</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="145" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="124"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="93">
-        <v>44796</v>
-      </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="88"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="127"/>
     </row>
     <row r="12" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="78"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="88"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="127"/>
     </row>
     <row r="13" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="78"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="88"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="129"/>
+      <c r="AB13" s="129"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="129"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="127"/>
     </row>
     <row r="14" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="88"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="127"/>
     </row>
     <row r="15" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="78"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="88"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="126"/>
+      <c r="AI15" s="127"/>
     </row>
     <row r="16" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="78"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="88"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="129"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="127"/>
     </row>
     <row r="17" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="78"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="88"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="129"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="127"/>
     </row>
     <row r="18" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="88"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="129"/>
+      <c r="Z18" s="129"/>
+      <c r="AA18" s="129"/>
+      <c r="AB18" s="129"/>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="129"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="127"/>
     </row>
     <row r="19" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="78"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="88"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="129"/>
+      <c r="AC19" s="129"/>
+      <c r="AD19" s="129"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="127"/>
     </row>
     <row r="20" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="78"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="88"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="126"/>
+      <c r="AH20" s="126"/>
+      <c r="AI20" s="127"/>
     </row>
     <row r="21" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="78"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="88"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="129"/>
+      <c r="AA21" s="129"/>
+      <c r="AB21" s="129"/>
+      <c r="AC21" s="129"/>
+      <c r="AD21" s="129"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="125"/>
+      <c r="AG21" s="126"/>
+      <c r="AH21" s="126"/>
+      <c r="AI21" s="127"/>
     </row>
     <row r="22" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="78"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="87"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="88"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="129"/>
+      <c r="AB22" s="129"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="129"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="127"/>
     </row>
     <row r="23" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="78"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="91"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="88"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="127"/>
     </row>
     <row r="24" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="78"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="91"/>
-      <c r="AF24" s="86"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="88"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="129"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="127"/>
     </row>
     <row r="25" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="78"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="88"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="129"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="125"/>
+      <c r="AG25" s="126"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="127"/>
     </row>
     <row r="26" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="78"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="91"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="88"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="129"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="127"/>
     </row>
     <row r="27" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="78"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="86"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="88"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="129"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="129"/>
+      <c r="AB27" s="129"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="129"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="126"/>
+      <c r="AI27" s="127"/>
     </row>
     <row r="28" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="78"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="88"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="129"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="129"/>
+      <c r="AB28" s="129"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="127"/>
     </row>
     <row r="29" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="78"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="91"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="88"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="129"/>
+      <c r="AA29" s="129"/>
+      <c r="AB29" s="129"/>
+      <c r="AC29" s="129"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="127"/>
     </row>
     <row r="30" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="78"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="91"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="88"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
+      <c r="Y30" s="129"/>
+      <c r="Z30" s="129"/>
+      <c r="AA30" s="129"/>
+      <c r="AB30" s="129"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="129"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="126"/>
+      <c r="AI30" s="127"/>
     </row>
     <row r="31" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="78"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="90"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="88"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="129"/>
+      <c r="Y31" s="129"/>
+      <c r="Z31" s="129"/>
+      <c r="AA31" s="129"/>
+      <c r="AB31" s="129"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="129"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="127"/>
     </row>
     <row r="32" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="78"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="91"/>
-      <c r="AF32" s="86"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="88"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
+      <c r="AB32" s="129"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="125"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="127"/>
     </row>
     <row r="33" spans="1:35" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="78"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="90"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="90"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="86"/>
-      <c r="AG33" s="87"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="88"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="129"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="129"/>
+      <c r="AA33" s="129"/>
+      <c r="AB33" s="129"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="129"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="126"/>
+      <c r="AI33" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13911,162 +15334,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14224,163 +15491,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>9</v>
+      <c r="A1" s="88" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="128" t="s">
-        <v>12</v>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="97" t="s">
+        <v>11</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="137" t="str">
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="106" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="119" t="s">
-        <v>13</v>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="88" t="s">
+        <v>12</v>
       </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="148">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="150"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
-        <v>10</v>
+      <c r="A2" s="88" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="str">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="119" t="s">
-        <v>14</v>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="88" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="148">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="150"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
+      <c r="A3" s="88" t="s">
+        <v>10</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="str">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="150"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -14440,7 +15707,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
@@ -14501,7 +15768,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -14577,7 +15844,7 @@
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -14652,7 +15919,7 @@
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="24"/>
@@ -15882,14 +17149,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15899,6 +17158,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -15918,6 +17185,650 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="4.83203125" style="200" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" style="202" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="200" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="202" customWidth="1"/>
+    <col min="8" max="11" width="4.83203125" style="200" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="202" customWidth="1"/>
+    <col min="14" max="15" width="4.83203125" style="200" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="202" customWidth="1"/>
+    <col min="17" max="21" width="4.83203125" style="200" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="202" customWidth="1"/>
+    <col min="23" max="27" width="4.83203125" style="200" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="200" customWidth="1"/>
+    <col min="29" max="29" width="4.83203125" style="200" customWidth="1"/>
+    <col min="30" max="31" width="4.83203125" style="202" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="200"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" s="181" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="165" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
+        <v>Sample Project</v>
+      </c>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="171" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
+        <v>Screen Transition Diagram</v>
+      </c>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="162" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="174" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="177">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
+        <v>43595</v>
+      </c>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
+      <c r="AJ1" s="180"/>
+      <c r="AN1" s="182"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="183"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+    </row>
+    <row r="2" spans="1:50" s="181" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="165" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
+        <v>Sample System</v>
+      </c>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="162" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="174" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="177">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="180"/>
+      <c r="AN2" s="182"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="183"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="180"/>
+      <c r="AV2" s="180"/>
+      <c r="AW2" s="180"/>
+    </row>
+    <row r="3" spans="1:50" s="181" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
+        <v>Project Management System</v>
+      </c>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="174" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="177" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
+      <c r="AJ3" s="196"/>
+      <c r="AK3" s="197"/>
+      <c r="AL3" s="197"/>
+      <c r="AM3" s="197"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="182"/>
+      <c r="AP3" s="182"/>
+      <c r="AQ3" s="182"/>
+      <c r="AR3" s="182"/>
+      <c r="AS3" s="183"/>
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="183"/>
+      <c r="AW3" s="183"/>
+    </row>
+    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="198"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="199"/>
+      <c r="AE4" s="199"/>
+      <c r="AF4" s="198"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="198"/>
+      <c r="AJ4" s="198"/>
+      <c r="AK4" s="198"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="198"/>
+      <c r="AN4" s="198"/>
+      <c r="AO4" s="198"/>
+      <c r="AP4" s="198"/>
+      <c r="AQ4" s="198"/>
+      <c r="AR4" s="198"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="198"/>
+      <c r="AU4" s="198"/>
+      <c r="AV4" s="198"/>
+      <c r="AW4" s="198"/>
+      <c r="AX4" s="198"/>
+    </row>
+    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="201" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="200"/>
+      <c r="I6" s="202"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="202"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="200"/>
+      <c r="I7" s="202"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="200"/>
+      <c r="I8" s="202"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="P8" s="200"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="200"/>
+      <c r="I9" s="202"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="P9" s="200"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+    </row>
+    <row r="10" spans="1:50" s="202" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:50" s="202" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="200"/>
+      <c r="I12" s="202"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="P12" s="200"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="202"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="200"/>
+      <c r="I13" s="202"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="P13" s="200"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+    </row>
+    <row r="14" spans="1:50" s="202" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="200"/>
+      <c r="I15" s="202"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="P15" s="200"/>
+      <c r="R15" s="202"/>
+      <c r="S15" s="202"/>
+    </row>
+    <row r="16" spans="1:50" s="202" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="200"/>
+      <c r="I17" s="202"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="P17" s="200"/>
+      <c r="R17" s="202"/>
+      <c r="S17" s="202"/>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="200"/>
+      <c r="I18" s="202"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="203"/>
+      <c r="P18" s="200"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
+      <c r="Z18" s="203"/>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="200"/>
+      <c r="I19" s="202"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
+      <c r="P19" s="200"/>
+      <c r="R19" s="202"/>
+      <c r="S19" s="202"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="200"/>
+      <c r="I20" s="202"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="200"/>
+      <c r="I21" s="202"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
+    </row>
+    <row r="22" spans="3:31" s="202" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200"/>
+      <c r="U22" s="200"/>
+      <c r="W22" s="200"/>
+      <c r="X22" s="200"/>
+      <c r="Y22" s="200"/>
+      <c r="Z22" s="200"/>
+      <c r="AA22" s="200"/>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="200"/>
+      <c r="I23" s="202"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="P23" s="200"/>
+      <c r="R23" s="202"/>
+      <c r="S23" s="202"/>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="200"/>
+      <c r="I24" s="202"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="R24" s="202"/>
+      <c r="S24" s="202"/>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="200"/>
+      <c r="I25" s="202"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="R25" s="202"/>
+      <c r="S25" s="202"/>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="200"/>
+      <c r="I26" s="202"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="R26" s="202"/>
+      <c r="S26" s="202"/>
+    </row>
+    <row r="27" spans="3:31" s="202" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="F28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="Q28" s="202"/>
+      <c r="R28" s="202"/>
+      <c r="S28" s="202"/>
+      <c r="T28" s="202"/>
+      <c r="U28" s="202"/>
+      <c r="W28" s="202"/>
+      <c r="X28" s="202"/>
+      <c r="Y28" s="202"/>
+      <c r="Z28" s="202"/>
+      <c r="AA28" s="202"/>
+    </row>
+    <row r="29" spans="3:31" s="202" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="200"/>
+      <c r="M29" s="200"/>
+      <c r="N29" s="200"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="200"/>
+      <c r="T29" s="200"/>
+      <c r="U29" s="200"/>
+      <c r="W29" s="200"/>
+      <c r="X29" s="200"/>
+      <c r="Y29" s="200"/>
+      <c r="Z29" s="200"/>
+      <c r="AA29" s="200"/>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="200"/>
+      <c r="I30" s="202"/>
+      <c r="L30" s="200"/>
+      <c r="M30" s="200"/>
+      <c r="P30" s="200"/>
+      <c r="R30" s="202"/>
+      <c r="S30" s="202"/>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="F31" s="202"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="202"/>
+      <c r="N31" s="202"/>
+      <c r="Q31" s="202"/>
+      <c r="R31" s="202"/>
+      <c r="S31" s="202"/>
+      <c r="T31" s="202"/>
+      <c r="U31" s="202"/>
+      <c r="W31" s="202"/>
+      <c r="X31" s="202"/>
+      <c r="Y31" s="202"/>
+      <c r="Z31" s="202"/>
+      <c r="AA31" s="202"/>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.15">
+      <c r="C32" s="200"/>
+      <c r="D32" s="200"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="200"/>
+      <c r="I32" s="202"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="200"/>
+      <c r="P32" s="200"/>
+      <c r="R32" s="202"/>
+      <c r="S32" s="202"/>
+      <c r="AC32" s="202"/>
+      <c r="AD32" s="200"/>
+      <c r="AE32" s="200"/>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.15">
+      <c r="F33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="N33" s="202"/>
+      <c r="Q33" s="202"/>
+      <c r="R33" s="202"/>
+      <c r="S33" s="202"/>
+      <c r="T33" s="202"/>
+      <c r="U33" s="202"/>
+      <c r="W33" s="202"/>
+      <c r="X33" s="202"/>
+      <c r="Y33" s="202"/>
+      <c r="Z33" s="202"/>
+      <c r="AA33" s="202"/>
+      <c r="AC33" s="202"/>
+      <c r="AD33" s="200"/>
+      <c r="AE33" s="200"/>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.15">
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="200"/>
+      <c r="I34" s="202"/>
+      <c r="L34" s="200"/>
+      <c r="M34" s="200"/>
+      <c r="P34" s="200"/>
+      <c r="R34" s="202"/>
+      <c r="S34" s="202"/>
+      <c r="AB34" s="202"/>
+      <c r="AC34" s="202"/>
+      <c r="AF34" s="202"/>
+      <c r="AG34" s="202"/>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.15">
+      <c r="C35" s="200"/>
+      <c r="D35" s="200"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="200"/>
+      <c r="I35" s="202"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="203"/>
+      <c r="P35" s="200"/>
+      <c r="R35" s="202"/>
+      <c r="S35" s="202"/>
+      <c r="Z35" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AX53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.83203125" style="66" customWidth="1"/>
@@ -15931,66 +17842,66 @@
     <col min="17" max="21" width="4.83203125" style="66" customWidth="1"/>
     <col min="22" max="22" width="4.83203125" style="67" customWidth="1"/>
     <col min="23" max="27" width="4.83203125" style="66" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="66" customWidth="1"/>
+    <col min="28" max="28" width="5.83203125" style="66" customWidth="1"/>
     <col min="29" max="29" width="4.83203125" style="66" customWidth="1"/>
     <col min="30" max="31" width="4.83203125" style="67" customWidth="1"/>
     <col min="32" max="16384" width="4.83203125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>9</v>
+      <c r="A1" s="88" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="128" t="s">
-        <v>12</v>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="97" t="s">
+        <v>11</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="154" t="str">
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="119" t="s">
-        <v>13</v>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="88" t="s">
+        <v>12</v>
       </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="148">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="150"/>
       <c r="AJ1" s="26"/>
       <c r="AN1" s="62"/>
       <c r="AO1" s="26"/>
@@ -16004,54 +17915,54 @@
       <c r="AW1" s="26"/>
     </row>
     <row r="2" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
-        <v>10</v>
+      <c r="A2" s="88" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="str">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="119" t="s">
-        <v>14</v>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="88" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="148">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="150"/>
       <c r="AJ2" s="26"/>
       <c r="AN2" s="62"/>
       <c r="AO2" s="26"/>
@@ -16065,52 +17976,52 @@
       <c r="AW2" s="26"/>
     </row>
     <row r="3" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
+      <c r="A3" s="88" t="s">
+        <v>10</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="str">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="150"/>
       <c r="AJ3" s="64"/>
       <c r="AK3" s="65"/>
       <c r="AL3" s="65"/>
@@ -16271,7 +18182,7 @@
       <c r="S15" s="67"/>
     </row>
     <row r="16" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
       <c r="F17" s="67"/>
@@ -16283,7 +18194,7 @@
       <c r="R17" s="67"/>
       <c r="S17" s="67"/>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
       <c r="F18" s="67"/>
@@ -16296,218 +18207,215 @@
       <c r="S18" s="67"/>
       <c r="Z18" s="68"/>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
       <c r="F19" s="67"/>
       <c r="G19" s="66"/>
       <c r="I19" s="67"/>
       <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
+      <c r="M19" s="68"/>
       <c r="P19" s="66"/>
       <c r="R19" s="67"/>
       <c r="S19" s="67"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="Z19" s="68"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="66"/>
       <c r="D20" s="66"/>
       <c r="F20" s="67"/>
       <c r="G20" s="66"/>
       <c r="I20" s="67"/>
       <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="M20" s="68"/>
+      <c r="P20" s="66"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="Z20" s="68"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
       <c r="F21" s="67"/>
       <c r="G21" s="66"/>
       <c r="I21" s="67"/>
       <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-    </row>
-    <row r="22" spans="3:31" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="M21" s="68"/>
+      <c r="P21" s="66"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="Z21" s="68"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="68"/>
+      <c r="P22" s="66"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="Z22" s="68"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="F23" s="67"/>
       <c r="G23" s="66"/>
       <c r="I23" s="67"/>
       <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
+      <c r="M23" s="68"/>
       <c r="P23" s="66"/>
       <c r="R23" s="67"/>
       <c r="S23" s="67"/>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="Z23" s="68"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
       <c r="F24" s="67"/>
       <c r="G24" s="66"/>
       <c r="I24" s="67"/>
       <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="M24" s="68"/>
       <c r="P24" s="66"/>
       <c r="R24" s="67"/>
       <c r="S24" s="67"/>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="Z24" s="68"/>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
       <c r="F25" s="67"/>
       <c r="G25" s="66"/>
       <c r="I25" s="67"/>
       <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
+      <c r="M25" s="68"/>
       <c r="P25" s="66"/>
       <c r="R25" s="67"/>
       <c r="S25" s="67"/>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="Z25" s="68"/>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="66"/>
       <c r="D26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="66"/>
       <c r="I26" s="67"/>
       <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
+      <c r="M26" s="68"/>
       <c r="P26" s="66"/>
       <c r="R26" s="67"/>
       <c r="S26" s="67"/>
-    </row>
-    <row r="27" spans="3:31" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="Z26" s="68"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="66"/>
+      <c r="I27" s="67"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="68"/>
+      <c r="P27" s="66"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="Z27" s="68"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
       <c r="F28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="G28" s="66"/>
       <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="Q28" s="67"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="68"/>
+      <c r="P28" s="66"/>
       <c r="R28" s="67"/>
       <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-    </row>
-    <row r="29" spans="3:31" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z28" s="68"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
+      <c r="I29" s="67"/>
       <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
+      <c r="M29" s="68"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="Z29" s="68"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="66"/>
       <c r="D30" s="66"/>
       <c r="F30" s="67"/>
       <c r="G30" s="66"/>
       <c r="I30" s="67"/>
       <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
+      <c r="M30" s="68"/>
       <c r="P30" s="66"/>
       <c r="R30" s="67"/>
       <c r="S30" s="67"/>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="Z30" s="68"/>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
       <c r="F31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="G31" s="66"/>
       <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="Q31" s="67"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="68"/>
+      <c r="P31" s="66"/>
       <c r="R31" s="67"/>
       <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="Z31" s="68"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="66"/>
       <c r="D32" s="66"/>
       <c r="F32" s="67"/>
       <c r="G32" s="66"/>
       <c r="I32" s="67"/>
       <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
+      <c r="M32" s="68"/>
       <c r="P32" s="66"/>
       <c r="R32" s="67"/>
       <c r="S32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="Z32" s="68"/>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
       <c r="F33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="G33" s="66"/>
       <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="Q33" s="67"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="68"/>
+      <c r="P33" s="66"/>
       <c r="R33" s="67"/>
       <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="Z33" s="68"/>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="66"/>
       <c r="D34" s="66"/>
       <c r="F34" s="67"/>
       <c r="G34" s="66"/>
       <c r="I34" s="67"/>
       <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
+      <c r="M34" s="68"/>
       <c r="P34" s="66"/>
       <c r="R34" s="67"/>
       <c r="S34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="Z34" s="68"/>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C35" s="66"/>
       <c r="D35" s="66"/>
       <c r="F35" s="67"/>
@@ -16520,16 +18428,238 @@
       <c r="S35" s="67"/>
       <c r="Z35" s="68"/>
     </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="66"/>
+      <c r="I36" s="67"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="68"/>
+      <c r="P36" s="66"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="Z36" s="68"/>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="66"/>
+      <c r="I37" s="67"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="68"/>
+      <c r="P37" s="66"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="Z37" s="68"/>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="68"/>
+      <c r="P38" s="66"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="Z38" s="68"/>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="66"/>
+      <c r="I39" s="67"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="68"/>
+      <c r="P39" s="66"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+      <c r="Z39" s="68"/>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="I40" s="67"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="68"/>
+      <c r="P40" s="66"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="Z40" s="68"/>
+    </row>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="I41" s="67"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="68"/>
+      <c r="P41" s="66"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="Z41" s="68"/>
+    </row>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="66"/>
+      <c r="I42" s="67"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="68"/>
+      <c r="P42" s="66"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="Z42" s="68"/>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="68"/>
+      <c r="P43" s="66"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="Z43" s="68"/>
+    </row>
+    <row r="44" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="68"/>
+      <c r="P44" s="66"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="Z44" s="68"/>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="68"/>
+      <c r="P45" s="66"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="Z45" s="68"/>
+    </row>
+    <row r="46" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="66"/>
+      <c r="I46" s="67"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="68"/>
+      <c r="P46" s="66"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="Z46" s="68"/>
+    </row>
+    <row r="47" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="66"/>
+      <c r="I47" s="67"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="68"/>
+      <c r="P47" s="66"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="Z47" s="68"/>
+    </row>
+    <row r="48" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="66"/>
+      <c r="I48" s="67"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="68"/>
+      <c r="P48" s="66"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="Z48" s="68"/>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="66"/>
+      <c r="I49" s="67"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="68"/>
+      <c r="P49" s="66"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="67"/>
+      <c r="Z49" s="68"/>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="66"/>
+      <c r="I50" s="67"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="68"/>
+      <c r="P50" s="66"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="Z50" s="68"/>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="66"/>
+      <c r="I51" s="67"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="68"/>
+      <c r="P51" s="66"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="Z51" s="68"/>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="66"/>
+      <c r="I52" s="67"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="68"/>
+      <c r="P52" s="66"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="Z52" s="68"/>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="66"/>
+      <c r="I53" s="67"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16539,6 +18669,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -16551,15 +18689,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4626473F-E4AF-4E46-9729-107F9E424F3D}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX53"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -16575,66 +18713,66 @@
     <col min="17" max="21" width="4.83203125" style="66" customWidth="1"/>
     <col min="22" max="22" width="4.83203125" style="67" customWidth="1"/>
     <col min="23" max="27" width="4.83203125" style="66" customWidth="1"/>
-    <col min="28" max="28" width="5.83203125" style="66" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="66" customWidth="1"/>
     <col min="29" max="29" width="4.83203125" style="66" customWidth="1"/>
     <col min="30" max="31" width="4.83203125" style="67" customWidth="1"/>
     <col min="32" max="16384" width="4.83203125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>9</v>
+      <c r="A1" s="88" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="128" t="s">
-        <v>12</v>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="97" t="s">
+        <v>11</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="154" t="str">
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="119" t="s">
-        <v>13</v>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="88" t="s">
+        <v>12</v>
       </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="148">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="150"/>
       <c r="AJ1" s="26"/>
       <c r="AN1" s="62"/>
       <c r="AO1" s="26"/>
@@ -16648,54 +18786,54 @@
       <c r="AW1" s="26"/>
     </row>
     <row r="2" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
-        <v>10</v>
+      <c r="A2" s="88" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="str">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="119" t="s">
-        <v>14</v>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="88" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="148">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="150"/>
       <c r="AJ2" s="26"/>
       <c r="AN2" s="62"/>
       <c r="AO2" s="26"/>
@@ -16709,52 +18847,52 @@
       <c r="AW2" s="26"/>
     </row>
     <row r="3" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
+      <c r="A3" s="88" t="s">
+        <v>10</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="str">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="115" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="148" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="150"/>
       <c r="AJ3" s="64"/>
       <c r="AK3" s="65"/>
       <c r="AL3" s="65"/>
@@ -16824,878 +18962,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-    </row>
-    <row r="10" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-    </row>
-    <row r="14" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-    </row>
-    <row r="16" spans="1:50" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="68"/>
-      <c r="P18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="Z18" s="68"/>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="68"/>
-      <c r="P19" s="66"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="Z19" s="68"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="68"/>
-      <c r="P20" s="66"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="Z20" s="68"/>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="68"/>
-      <c r="P21" s="66"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="Z21" s="68"/>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="68"/>
-      <c r="P22" s="66"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="Z22" s="68"/>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="68"/>
-      <c r="P23" s="66"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="Z23" s="68"/>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="66"/>
-      <c r="I24" s="67"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="68"/>
-      <c r="P24" s="66"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="Z24" s="68"/>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="66"/>
-      <c r="I25" s="67"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="68"/>
-      <c r="P25" s="66"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="Z25" s="68"/>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="66"/>
-      <c r="I26" s="67"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="68"/>
-      <c r="P26" s="66"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="Z26" s="68"/>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="68"/>
-      <c r="P27" s="66"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="Z27" s="68"/>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="68"/>
-      <c r="P28" s="66"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="Z28" s="68"/>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="68"/>
-      <c r="P29" s="66"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="Z29" s="68"/>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="68"/>
-      <c r="P30" s="66"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="Z30" s="68"/>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="68"/>
-      <c r="P31" s="66"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="Z31" s="68"/>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="66"/>
-      <c r="I32" s="67"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="68"/>
-      <c r="P32" s="66"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="Z32" s="68"/>
-    </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="I33" s="67"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="68"/>
-      <c r="P33" s="66"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="Z33" s="68"/>
-    </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="66"/>
-      <c r="I34" s="67"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="68"/>
-      <c r="P34" s="66"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="Z34" s="68"/>
-    </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
-      <c r="I35" s="67"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="68"/>
-      <c r="P35" s="66"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="Z35" s="68"/>
-    </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="66"/>
-      <c r="I36" s="67"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="68"/>
-      <c r="P36" s="66"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="Z36" s="68"/>
-    </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="66"/>
-      <c r="I37" s="67"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="68"/>
-      <c r="P37" s="66"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="Z37" s="68"/>
-    </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="66"/>
-      <c r="I38" s="67"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="68"/>
-      <c r="P38" s="66"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="Z38" s="68"/>
-    </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="66"/>
-      <c r="I39" s="67"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="68"/>
-      <c r="P39" s="66"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67"/>
-      <c r="Z39" s="68"/>
-    </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="66"/>
-      <c r="I40" s="67"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="68"/>
-      <c r="P40" s="66"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="Z40" s="68"/>
-    </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="I41" s="67"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="68"/>
-      <c r="P41" s="66"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="Z41" s="68"/>
-    </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="66"/>
-      <c r="I42" s="67"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="68"/>
-      <c r="P42" s="66"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="Z42" s="68"/>
-    </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="66"/>
-      <c r="I43" s="67"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="68"/>
-      <c r="P43" s="66"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="Z43" s="68"/>
-    </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="66"/>
-      <c r="I44" s="67"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="68"/>
-      <c r="P44" s="66"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="Z44" s="68"/>
-    </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="68"/>
-      <c r="P45" s="66"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="Z45" s="68"/>
-    </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="66"/>
-      <c r="I46" s="67"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="68"/>
-      <c r="P46" s="66"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="Z46" s="68"/>
-    </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="66"/>
-      <c r="I47" s="67"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="68"/>
-      <c r="P47" s="66"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="Z47" s="68"/>
-    </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="66"/>
-      <c r="I48" s="67"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="68"/>
-      <c r="P48" s="66"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="Z48" s="68"/>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="66"/>
-      <c r="I49" s="67"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="68"/>
-      <c r="P49" s="66"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="Z49" s="68"/>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="66"/>
-      <c r="I50" s="67"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="68"/>
-      <c r="P50" s="66"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="Z50" s="68"/>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="66"/>
-      <c r="I51" s="67"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="68"/>
-      <c r="P51" s="66"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="Z51" s="68"/>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="66"/>
-      <c r="I52" s="67"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="68"/>
-      <c r="P52" s="66"/>
-      <c r="R52" s="67"/>
-      <c r="S52" s="67"/>
-      <c r="Z52" s="68"/>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="66"/>
-      <c r="I53" s="67"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4626473F-E4AF-4E46-9729-107F9E424F3D}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AX35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="4.83203125" style="66" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="67" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="66" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="67" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="66" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="67" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="66" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="67" customWidth="1"/>
-    <col min="23" max="27" width="4.83203125" style="66" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="66" customWidth="1"/>
-    <col min="29" max="29" width="4.83203125" style="66" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="67" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="66"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
-        <v>Sample Project</v>
-      </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="154" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
-        <v>Screen Transition Diagram</v>
-      </c>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="146" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
-        <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
-        <v>43595</v>
-      </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="26"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-    </row>
-    <row r="2" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
-        <v>Sample System</v>
-      </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="146" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
-        <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v>44796</v>
-      </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="26"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-    </row>
-    <row r="3" spans="1:50" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
-        <v>Project Management System</v>
-      </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="146" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
-        <v/>
-      </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
-        <v/>
-      </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-    </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-    </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
@@ -18037,6 +19304,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
@@ -18053,7 +19321,6 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65297FA-6F68-4772-A2DE-BCD748046217}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E637A-998E-46E3-99C3-42C74D491DDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,87 +1242,6 @@
     <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1436,6 +1355,87 @@
     </xf>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11074,7 +11074,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Generic error [WA1030201]</a:t>
+            <a:t>General error [WA1030201]</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="900">
             <a:solidFill>
@@ -13575,57 +13575,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="132" t="s">
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="114" t="s">
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="114" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="106">
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="79">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="108"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="81"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -13633,53 +13633,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="114" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="120" t="str">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="93" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="106">
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="79">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="108"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="81"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -13687,45 +13687,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="108"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="81"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13762,1073 +13762,1229 @@
       <c r="A7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="111" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="111" t="s">
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="111" t="s">
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="113"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="86"/>
     </row>
     <row r="8" spans="1:40" s="61" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="54">
         <v>1</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94">
+      <c r="C8" s="130"/>
+      <c r="D8" s="131">
         <v>43595</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100" t="s">
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="103" t="s">
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="100" t="s">
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="102"/>
+      <c r="AG8" s="138"/>
+      <c r="AH8" s="138"/>
+      <c r="AI8" s="139"/>
     </row>
     <row r="9" spans="1:40" s="61" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="62">
         <v>2</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81">
+      <c r="C9" s="118"/>
+      <c r="D9" s="119">
         <v>43803</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="81" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="85" t="s">
+      <c r="H9" s="122"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88" t="s">
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="85" t="s">
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="87"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="125"/>
     </row>
     <row r="10" spans="1:40" s="61" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="62">
         <v>3</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81">
+      <c r="C10" s="118"/>
+      <c r="D10" s="119">
         <v>43895</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="79" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="85" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="88" t="s">
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="85" t="s">
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="87"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="125"/>
     </row>
     <row r="11" spans="1:40" s="61" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="62">
         <v>4</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81">
+      <c r="C11" s="118"/>
+      <c r="D11" s="119">
         <v>44796</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="79" t="s">
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="88" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="85" t="s">
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="87"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="125"/>
     </row>
     <row r="12" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="62"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="87"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="123"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="125"/>
     </row>
     <row r="13" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="62"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="87"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="125"/>
     </row>
     <row r="14" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="62"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="87"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="125"/>
     </row>
     <row r="15" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="62"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="87"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="62"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="87"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="123"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="125"/>
     </row>
     <row r="17" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="62"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="87"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="125"/>
     </row>
     <row r="18" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="62"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="87"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="125"/>
     </row>
     <row r="19" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="62"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="87"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="125"/>
     </row>
     <row r="20" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="62"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="87"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="125"/>
     </row>
     <row r="21" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="62"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="87"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="125"/>
     </row>
     <row r="22" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="62"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="87"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="125"/>
     </row>
     <row r="23" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="62"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="87"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="123"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="125"/>
     </row>
     <row r="24" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="62"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="87"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="125"/>
     </row>
     <row r="25" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="62"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="87"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="125"/>
     </row>
     <row r="26" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="62"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="87"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="123"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="125"/>
     </row>
     <row r="27" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="62"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="87"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="123"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="125"/>
     </row>
     <row r="28" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="62"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="87"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="123"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="125"/>
     </row>
     <row r="29" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="62"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="87"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="125"/>
     </row>
     <row r="30" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="62"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="87"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="123"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="125"/>
     </row>
     <row r="31" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="62"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="85"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="87"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="125"/>
     </row>
     <row r="32" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="62"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="87"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="125"/>
     </row>
     <row r="33" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="62"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="89"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="87"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14852,162 +15008,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -15165,53 +15165,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="str">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="132" t="str">
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="105" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="114" t="s">
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="116"/>
       <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
@@ -15223,48 +15223,48 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="str">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="114" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="116"/>
       <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
@@ -15276,46 +15276,46 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117" t="str">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="140"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="113"/>
       <c r="AA3" s="147"/>
       <c r="AB3" s="148"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AC3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="116"/>
       <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
@@ -16823,14 +16823,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16840,6 +16832,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -16879,31 +16879,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="str">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
       <c r="S1" s="149" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
@@ -16915,17 +16915,17 @@
       <c r="X1" s="150"/>
       <c r="Y1" s="150"/>
       <c r="Z1" s="151"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="116"/>
       <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
@@ -16945,29 +16945,29 @@
       <c r="AW1" s="10"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="str">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
       <c r="S2" s="152"/>
       <c r="T2" s="153"/>
       <c r="U2" s="153"/>
@@ -16976,17 +16976,17 @@
       <c r="X2" s="153"/>
       <c r="Y2" s="153"/>
       <c r="Z2" s="154"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="116"/>
       <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
@@ -17006,29 +17006,29 @@
       <c r="AW2" s="10"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117" t="str">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
       <c r="S3" s="155"/>
       <c r="T3" s="156"/>
       <c r="U3" s="156"/>
@@ -17037,15 +17037,15 @@
       <c r="X3" s="156"/>
       <c r="Y3" s="156"/>
       <c r="Z3" s="157"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="116"/>
       <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
@@ -17463,14 +17463,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17480,6 +17472,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -17523,31 +17523,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="str">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
       <c r="S1" s="149" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
@@ -17559,17 +17559,17 @@
       <c r="X1" s="150"/>
       <c r="Y1" s="150"/>
       <c r="Z1" s="151"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="116"/>
       <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
@@ -17589,29 +17589,29 @@
       <c r="AW1" s="10"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="str">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
       <c r="S2" s="152"/>
       <c r="T2" s="153"/>
       <c r="U2" s="153"/>
@@ -17620,17 +17620,17 @@
       <c r="X2" s="153"/>
       <c r="Y2" s="153"/>
       <c r="Z2" s="154"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="116"/>
       <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
@@ -17650,29 +17650,29 @@
       <c r="AW2" s="10"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117" t="str">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
       <c r="S3" s="155"/>
       <c r="T3" s="156"/>
       <c r="U3" s="156"/>
@@ -17681,15 +17681,15 @@
       <c r="X3" s="156"/>
       <c r="Y3" s="156"/>
       <c r="Z3" s="157"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="116"/>
       <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
@@ -18334,14 +18334,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18351,6 +18343,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -18394,31 +18394,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="str">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
       <c r="S1" s="149" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
@@ -18430,17 +18430,17 @@
       <c r="X1" s="150"/>
       <c r="Y1" s="150"/>
       <c r="Z1" s="151"/>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="116"/>
       <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
@@ -18460,29 +18460,29 @@
       <c r="AW1" s="10"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="str">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
       <c r="S2" s="152"/>
       <c r="T2" s="153"/>
       <c r="U2" s="153"/>
@@ -18491,17 +18491,17 @@
       <c r="X2" s="153"/>
       <c r="Y2" s="153"/>
       <c r="Z2" s="154"/>
-      <c r="AA2" s="114" t="s">
+      <c r="AA2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="116"/>
       <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
@@ -18521,29 +18521,29 @@
       <c r="AW2" s="10"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117" t="str">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
       <c r="S3" s="155"/>
       <c r="T3" s="156"/>
       <c r="U3" s="156"/>
@@ -18552,15 +18552,15 @@
       <c r="X3" s="156"/>
       <c r="Y3" s="156"/>
       <c r="Z3" s="157"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="116"/>
       <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
@@ -18978,14 +18978,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18995,6 +18987,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/010_Requirements_Definition/040_Screen_Design/Screen_Transition_Diagram_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E637A-998E-46E3-99C3-42C74D491DDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E968D70-B0CF-45A6-A370-8063DF6E355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -32,7 +32,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1064,144 +1069,88 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1211,7 +1160,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,21 +1174,101 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1284,13 +1312,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,122 +1348,41 @@
     <xf numFmtId="0" fontId="24" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1452,31 +1399,31 @@
     <xf numFmtId="0" fontId="24" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2162,13 +2109,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2184,7 +2131,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4429125" y="5038725"/>
+          <a:off x="4429125" y="4733925"/>
           <a:ext cx="4933950" cy="2286000"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -12920,15 +12867,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="63"/>
+    <col min="1" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12950,125 +12897,125 @@
     <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="F22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="J23" s="68" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="J23" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="78">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="48">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="69"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="F29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="67"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="67"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="67"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="67"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="6:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F32" s="67"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="67"/>
-      <c r="J32" s="71"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="38"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="6:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="J33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
+      <c r="F33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="J33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="6:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="J34" s="71"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
+      <c r="F34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="J34" s="42"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O36" s="75"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="75"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="45"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="76"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="46"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13569,63 +13516,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="4.83203125" style="50"/>
-    <col min="28" max="28" width="6" style="50" customWidth="1"/>
-    <col min="29" max="16384" width="4.83203125" style="50"/>
+    <col min="1" max="27" width="4.83203125" style="4"/>
+    <col min="28" max="28" width="6" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="96" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="105" t="s">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="87" t="s">
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="114" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="111" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="79">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="76">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="78"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -13633,53 +13580,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="87" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="93" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="90" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="79">
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="76">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -13687,1304 +13634,1148 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="81"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="55" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="56" t="s">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
     </row>
-    <row r="6" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N6" s="60"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
+    <row r="6" spans="1:40" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="1"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
     </row>
-    <row r="7" spans="1:40" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:40" s="33" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="84" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="84" t="s">
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="84" t="s">
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="84" t="s">
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="86"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="83"/>
     </row>
-    <row r="8" spans="1:40" s="61" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54">
+    <row r="8" spans="1:40" s="33" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64">
         <v>43595</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="134" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="140" t="s">
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="137" t="s">
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="139"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="72"/>
     </row>
-    <row r="9" spans="1:40" s="61" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="62">
+    <row r="9" spans="1:40" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34">
         <v>2</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51">
         <v>43803</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="119" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="123" t="s">
+      <c r="H9" s="54"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="123" t="s">
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="125"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="57"/>
     </row>
-    <row r="10" spans="1:40" s="61" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="62">
+    <row r="10" spans="1:40" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51">
         <v>43895</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="143" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="123" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126" t="s">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="123" t="s">
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="125"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="57"/>
     </row>
-    <row r="11" spans="1:40" s="61" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62">
+    <row r="11" spans="1:40" s="33" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34">
         <v>4</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51">
         <v>44796</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="143" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="126" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="126" t="s">
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="123" t="s">
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="125"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="57"/>
     </row>
-    <row r="12" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="123"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="125"/>
+    <row r="12" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="57"/>
     </row>
-    <row r="13" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="125"/>
+    <row r="13" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="57"/>
     </row>
-    <row r="14" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="128"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="125"/>
+    <row r="14" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="57"/>
     </row>
-    <row r="15" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="125"/>
+    <row r="15" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="57"/>
     </row>
-    <row r="16" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="123"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="125"/>
+    <row r="16" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="57"/>
     </row>
-    <row r="17" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="123"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="125"/>
+    <row r="17" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="57"/>
     </row>
-    <row r="18" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="123"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="125"/>
+    <row r="18" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="57"/>
     </row>
-    <row r="19" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="123"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="125"/>
+    <row r="19" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="57"/>
     </row>
-    <row r="20" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="125"/>
+    <row r="20" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="57"/>
     </row>
-    <row r="21" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="123"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="125"/>
+    <row r="21" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="57"/>
     </row>
-    <row r="22" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="123"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="125"/>
+    <row r="22" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="57"/>
     </row>
-    <row r="23" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="123"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="125"/>
+    <row r="23" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="57"/>
     </row>
-    <row r="24" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="123"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="125"/>
+    <row r="24" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="57"/>
     </row>
-    <row r="25" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="125"/>
+    <row r="25" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="34"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="57"/>
     </row>
-    <row r="26" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="123"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="125"/>
+    <row r="26" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="57"/>
     </row>
-    <row r="27" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="123"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="125"/>
+    <row r="27" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="34"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="57"/>
     </row>
-    <row r="28" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="123"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="125"/>
+    <row r="28" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="34"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="57"/>
     </row>
-    <row r="29" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="123"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="125"/>
+    <row r="29" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="34"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="57"/>
     </row>
-    <row r="30" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="123"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="125"/>
+    <row r="30" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="34"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="57"/>
     </row>
-    <row r="31" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="123"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="125"/>
+    <row r="31" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="57"/>
     </row>
-    <row r="32" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="123"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="125"/>
+    <row r="32" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="34"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="57"/>
     </row>
-    <row r="33" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="123"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="125"/>
+    <row r="33" spans="1:35" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="34"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15008,6 +14799,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -15021,7 +14968,7 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -15029,299 +14976,299 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="35" customWidth="1"/>
-    <col min="18" max="27" width="4.83203125" style="16" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="16" customWidth="1"/>
-    <col min="29" max="33" width="4.83203125" style="16" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="35" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="16"/>
-    <col min="257" max="290" width="4.83203125" style="16" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="16"/>
-    <col min="513" max="546" width="4.83203125" style="16" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="16"/>
-    <col min="769" max="802" width="4.83203125" style="16" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="16"/>
-    <col min="1025" max="1058" width="4.83203125" style="16" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="16"/>
-    <col min="1281" max="1314" width="4.83203125" style="16" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="16"/>
-    <col min="1537" max="1570" width="4.83203125" style="16" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="16"/>
-    <col min="1793" max="1826" width="4.83203125" style="16" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="16"/>
-    <col min="2049" max="2082" width="4.83203125" style="16" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="16"/>
-    <col min="2305" max="2338" width="4.83203125" style="16" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="16"/>
-    <col min="2561" max="2594" width="4.83203125" style="16" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="16"/>
-    <col min="2817" max="2850" width="4.83203125" style="16" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="16"/>
-    <col min="3073" max="3106" width="4.83203125" style="16" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="16"/>
-    <col min="3329" max="3362" width="4.83203125" style="16" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="16"/>
-    <col min="3585" max="3618" width="4.83203125" style="16" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="16"/>
-    <col min="3841" max="3874" width="4.83203125" style="16" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="16"/>
-    <col min="4097" max="4130" width="4.83203125" style="16" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="16"/>
-    <col min="4353" max="4386" width="4.83203125" style="16" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="16"/>
-    <col min="4609" max="4642" width="4.83203125" style="16" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="16"/>
-    <col min="4865" max="4898" width="4.83203125" style="16" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="16"/>
-    <col min="5121" max="5154" width="4.83203125" style="16" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="16"/>
-    <col min="5377" max="5410" width="4.83203125" style="16" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="16"/>
-    <col min="5633" max="5666" width="4.83203125" style="16" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="16"/>
-    <col min="5889" max="5922" width="4.83203125" style="16" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="16"/>
-    <col min="6145" max="6178" width="4.83203125" style="16" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="16"/>
-    <col min="6401" max="6434" width="4.83203125" style="16" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="16"/>
-    <col min="6657" max="6690" width="4.83203125" style="16" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="16"/>
-    <col min="6913" max="6946" width="4.83203125" style="16" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="16"/>
-    <col min="7169" max="7202" width="4.83203125" style="16" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="16"/>
-    <col min="7425" max="7458" width="4.83203125" style="16" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="16"/>
-    <col min="7681" max="7714" width="4.83203125" style="16" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="16"/>
-    <col min="7937" max="7970" width="4.83203125" style="16" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="16"/>
-    <col min="8193" max="8226" width="4.83203125" style="16" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="16"/>
-    <col min="8449" max="8482" width="4.83203125" style="16" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="16"/>
-    <col min="8705" max="8738" width="4.83203125" style="16" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="16"/>
-    <col min="8961" max="8994" width="4.83203125" style="16" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="16"/>
-    <col min="9217" max="9250" width="4.83203125" style="16" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="16"/>
-    <col min="9473" max="9506" width="4.83203125" style="16" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="16"/>
-    <col min="9729" max="9762" width="4.83203125" style="16" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="16"/>
-    <col min="9985" max="10018" width="4.83203125" style="16" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="16"/>
-    <col min="10241" max="10274" width="4.83203125" style="16" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="16"/>
-    <col min="10497" max="10530" width="4.83203125" style="16" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="16"/>
-    <col min="10753" max="10786" width="4.83203125" style="16" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="16"/>
-    <col min="11009" max="11042" width="4.83203125" style="16" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="16"/>
-    <col min="11265" max="11298" width="4.83203125" style="16" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="16"/>
-    <col min="11521" max="11554" width="4.83203125" style="16" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="16"/>
-    <col min="11777" max="11810" width="4.83203125" style="16" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="16"/>
-    <col min="12033" max="12066" width="4.83203125" style="16" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="16"/>
-    <col min="12289" max="12322" width="4.83203125" style="16" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="16"/>
-    <col min="12545" max="12578" width="4.83203125" style="16" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="16"/>
-    <col min="12801" max="12834" width="4.83203125" style="16" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="16"/>
-    <col min="13057" max="13090" width="4.83203125" style="16" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="16"/>
-    <col min="13313" max="13346" width="4.83203125" style="16" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="16"/>
-    <col min="13569" max="13602" width="4.83203125" style="16" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="16"/>
-    <col min="13825" max="13858" width="4.83203125" style="16" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="16"/>
-    <col min="14081" max="14114" width="4.83203125" style="16" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="16"/>
-    <col min="14337" max="14370" width="4.83203125" style="16" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="16"/>
-    <col min="14593" max="14626" width="4.83203125" style="16" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="16"/>
-    <col min="14849" max="14882" width="4.83203125" style="16" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="16"/>
-    <col min="15105" max="15138" width="4.83203125" style="16" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="16"/>
-    <col min="15361" max="15394" width="4.83203125" style="16" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="16"/>
-    <col min="15617" max="15650" width="4.83203125" style="16" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="16"/>
-    <col min="15873" max="15906" width="4.83203125" style="16" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="16"/>
-    <col min="16129" max="16162" width="4.83203125" style="16" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="16"/>
+    <col min="1" max="16" width="4.83203125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="21" customWidth="1"/>
+    <col min="18" max="27" width="4.83203125" style="11" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="11" customWidth="1"/>
+    <col min="29" max="33" width="4.83203125" style="11" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="21" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="11"/>
+    <col min="257" max="290" width="4.83203125" style="11" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="11"/>
+    <col min="513" max="546" width="4.83203125" style="11" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="11"/>
+    <col min="769" max="802" width="4.83203125" style="11" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="11"/>
+    <col min="1025" max="1058" width="4.83203125" style="11" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="11"/>
+    <col min="1281" max="1314" width="4.83203125" style="11" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="11"/>
+    <col min="1537" max="1570" width="4.83203125" style="11" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="11"/>
+    <col min="1793" max="1826" width="4.83203125" style="11" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="11"/>
+    <col min="2049" max="2082" width="4.83203125" style="11" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="11"/>
+    <col min="2305" max="2338" width="4.83203125" style="11" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="11"/>
+    <col min="2561" max="2594" width="4.83203125" style="11" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="11"/>
+    <col min="2817" max="2850" width="4.83203125" style="11" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="11"/>
+    <col min="3073" max="3106" width="4.83203125" style="11" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="11"/>
+    <col min="3329" max="3362" width="4.83203125" style="11" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="11"/>
+    <col min="3585" max="3618" width="4.83203125" style="11" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="11"/>
+    <col min="3841" max="3874" width="4.83203125" style="11" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="11"/>
+    <col min="4097" max="4130" width="4.83203125" style="11" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="11"/>
+    <col min="4353" max="4386" width="4.83203125" style="11" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="11"/>
+    <col min="4609" max="4642" width="4.83203125" style="11" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="11"/>
+    <col min="4865" max="4898" width="4.83203125" style="11" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="11"/>
+    <col min="5121" max="5154" width="4.83203125" style="11" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="11"/>
+    <col min="5377" max="5410" width="4.83203125" style="11" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="11"/>
+    <col min="5633" max="5666" width="4.83203125" style="11" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="11"/>
+    <col min="5889" max="5922" width="4.83203125" style="11" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="11"/>
+    <col min="6145" max="6178" width="4.83203125" style="11" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="11"/>
+    <col min="6401" max="6434" width="4.83203125" style="11" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="11"/>
+    <col min="6657" max="6690" width="4.83203125" style="11" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="11"/>
+    <col min="6913" max="6946" width="4.83203125" style="11" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="11"/>
+    <col min="7169" max="7202" width="4.83203125" style="11" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="11"/>
+    <col min="7425" max="7458" width="4.83203125" style="11" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="11"/>
+    <col min="7681" max="7714" width="4.83203125" style="11" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="11"/>
+    <col min="7937" max="7970" width="4.83203125" style="11" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="11"/>
+    <col min="8193" max="8226" width="4.83203125" style="11" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="11"/>
+    <col min="8449" max="8482" width="4.83203125" style="11" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="11"/>
+    <col min="8705" max="8738" width="4.83203125" style="11" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="11"/>
+    <col min="8961" max="8994" width="4.83203125" style="11" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="11"/>
+    <col min="9217" max="9250" width="4.83203125" style="11" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="11"/>
+    <col min="9473" max="9506" width="4.83203125" style="11" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="11"/>
+    <col min="9729" max="9762" width="4.83203125" style="11" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="11"/>
+    <col min="9985" max="10018" width="4.83203125" style="11" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="11"/>
+    <col min="10241" max="10274" width="4.83203125" style="11" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="11"/>
+    <col min="10497" max="10530" width="4.83203125" style="11" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="11"/>
+    <col min="10753" max="10786" width="4.83203125" style="11" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="11"/>
+    <col min="11009" max="11042" width="4.83203125" style="11" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="11"/>
+    <col min="11265" max="11298" width="4.83203125" style="11" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="11"/>
+    <col min="11521" max="11554" width="4.83203125" style="11" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="11"/>
+    <col min="11777" max="11810" width="4.83203125" style="11" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="11"/>
+    <col min="12033" max="12066" width="4.83203125" style="11" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="11"/>
+    <col min="12289" max="12322" width="4.83203125" style="11" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="11"/>
+    <col min="12545" max="12578" width="4.83203125" style="11" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="11"/>
+    <col min="12801" max="12834" width="4.83203125" style="11" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="11"/>
+    <col min="13057" max="13090" width="4.83203125" style="11" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="11"/>
+    <col min="13313" max="13346" width="4.83203125" style="11" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="11"/>
+    <col min="13569" max="13602" width="4.83203125" style="11" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="11"/>
+    <col min="13825" max="13858" width="4.83203125" style="11" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="11"/>
+    <col min="14081" max="14114" width="4.83203125" style="11" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="11"/>
+    <col min="14337" max="14370" width="4.83203125" style="11" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="11"/>
+    <col min="14593" max="14626" width="4.83203125" style="11" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="11"/>
+    <col min="14849" max="14882" width="4.83203125" style="11" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="11"/>
+    <col min="15105" max="15138" width="4.83203125" style="11" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="11"/>
+    <col min="15361" max="15394" width="4.83203125" style="11" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="11"/>
+    <col min="15617" max="15650" width="4.83203125" style="11" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="11"/>
+    <col min="15873" max="15906" width="4.83203125" style="11" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="11"/>
+    <col min="16129" max="16162" width="4.83203125" style="11" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="96" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="105" t="str">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="102" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="87" t="s">
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="114" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="116"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="87" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="114" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="144">
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="116"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="114" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="116"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -15416,7 +15363,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="8"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -15440,347 +15387,347 @@
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="15"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="4"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="15"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="8"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="15"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="4"/>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="15"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="15"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="15"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="4"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="15"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="15"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="4"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -15792,32 +15739,32 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="15"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="4"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -15829,31 +15776,31 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="10"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="15"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="4"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -15865,69 +15812,69 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="15"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="4"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="15"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="4"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -15939,32 +15886,32 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="15"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="4"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -15976,32 +15923,32 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="15"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -16013,32 +15960,32 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="15"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -16050,74 +15997,74 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="10"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="15"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="10"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="15"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="4"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -16127,34 +16074,34 @@
       <c r="O25" s="4"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="15"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="4"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -16164,34 +16111,34 @@
       <c r="O26" s="4"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="15"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="4"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -16201,34 +16148,34 @@
       <c r="O27" s="4"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="15"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="4"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -16238,71 +16185,71 @@
       <c r="O28" s="4"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="15"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="4"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="9"/>
       <c r="O29" s="4"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="15"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -16312,27 +16259,27 @@
       <c r="O30" s="4"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="15"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="4"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -16349,27 +16296,27 @@
       <c r="O31" s="4"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="25"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="13"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -16385,444 +16332,267 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="25"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="13"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="23"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="25"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="13"/>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="25"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="13"/>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="24"/>
-      <c r="AI35" s="25"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="13"/>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="25"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="13"/>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="21"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="13"/>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="34"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="36"/>
+      <c r="P38" s="20"/>
+      <c r="U38" s="22"/>
+      <c r="AG38" s="23"/>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="36"/>
+      <c r="U39" s="22"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="20"/>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q40" s="44"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="36"/>
+      <c r="T40" s="22"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="36"/>
+      <c r="AG41" s="20"/>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="42"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="36"/>
+      <c r="AG42" s="20"/>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="41"/>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="36"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="20"/>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="41"/>
-      <c r="AG44" s="41"/>
-      <c r="AH44" s="43"/>
-      <c r="AI44" s="36"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="45"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="AG46" s="45"/>
+      <c r="AG46" s="23"/>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF47" s="45"/>
-      <c r="AG47" s="45"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AG48" s="45"/>
+      <c r="AG48" s="23"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-    </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AG50" s="45"/>
-    </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R51" s="33"/>
-    </row>
-    <row r="52" spans="1:34" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16"/>
-      <c r="AH52" s="44"/>
-    </row>
-    <row r="53" spans="1:34" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-      <c r="AH53" s="44"/>
+    <row r="50" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG50" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16832,14 +16602,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -16853,7 +16615,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AW33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -16861,608 +16623,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="51" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="50" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="51" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="50" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="51" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="50" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="51" customWidth="1"/>
-    <col min="23" max="27" width="4.83203125" style="50" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="50" customWidth="1"/>
-    <col min="29" max="29" width="4.83203125" style="50" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="51" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="50"/>
+    <col min="1" max="27" width="4.83203125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="4" customWidth="1"/>
+    <col min="29" max="31" width="4.83203125" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="96" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="149" t="str">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="87" t="s">
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="114" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="10"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="4"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
     </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="87" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="114" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="144">
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
-      <c r="AJ2" s="10"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="4"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
     </row>
-    <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="114" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-    </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+    <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M18" s="16"/>
+      <c r="Z18" s="16"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="52"/>
-      <c r="P18" s="50"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="Z18" s="52"/>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-    </row>
-    <row r="22" spans="3:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-    </row>
-    <row r="27" spans="3:31" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="F28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-    </row>
-    <row r="29" spans="3:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="F31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="F33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="52"/>
-      <c r="P35" s="50"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="Z35" s="52"/>
+    <row r="33" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M33" s="16"/>
+      <c r="Z33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17472,14 +16851,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -17497,7 +16868,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX53"/>
+  <dimension ref="A1:AW52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -17505,835 +16876,357 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="51" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="50" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="51" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="50" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="51" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="50" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="51" customWidth="1"/>
-    <col min="23" max="27" width="4.83203125" style="50" customWidth="1"/>
-    <col min="28" max="28" width="5.83203125" style="50" customWidth="1"/>
-    <col min="29" max="29" width="4.83203125" style="50" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="51" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="50"/>
+    <col min="1" max="27" width="4.83203125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="5.83203125" style="4" customWidth="1"/>
+    <col min="29" max="31" width="4.83203125" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="96" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="149" t="str">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="87" t="s">
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="114" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="10"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="4"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
     </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="87" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="114" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="144">
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
-      <c r="AJ2" s="10"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="4"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
     </row>
-    <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="114" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-    </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+    <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M18" s="16"/>
+      <c r="Z18" s="16"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
+    <row r="19" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M19" s="16"/>
+      <c r="Z19" s="16"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
+    <row r="20" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M20" s="16"/>
+      <c r="Z20" s="16"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
+    <row r="21" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M21" s="16"/>
+      <c r="Z21" s="16"/>
     </row>
-    <row r="10" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
+    <row r="22" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M22" s="16"/>
+      <c r="Z22" s="16"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
+    <row r="23" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M23" s="16"/>
+      <c r="Z23" s="16"/>
     </row>
-    <row r="14" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
+    <row r="24" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M24" s="16"/>
+      <c r="Z24" s="16"/>
     </row>
-    <row r="16" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
+    <row r="25" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M25" s="16"/>
+      <c r="Z25" s="16"/>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="52"/>
-      <c r="P18" s="50"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="Z18" s="52"/>
+    <row r="26" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M26" s="16"/>
+      <c r="Z26" s="16"/>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="52"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="Z19" s="52"/>
+    <row r="27" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M27" s="16"/>
+      <c r="Z27" s="16"/>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="52"/>
-      <c r="P20" s="50"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="Z20" s="52"/>
+    <row r="28" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M28" s="16"/>
+      <c r="Z28" s="16"/>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="52"/>
-      <c r="P21" s="50"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="Z21" s="52"/>
+    <row r="29" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M29" s="16"/>
+      <c r="Z29" s="16"/>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="52"/>
-      <c r="P22" s="50"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="Z22" s="52"/>
+    <row r="30" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M30" s="16"/>
+      <c r="Z30" s="16"/>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="52"/>
-      <c r="P23" s="50"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="Z23" s="52"/>
+    <row r="31" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M31" s="16"/>
+      <c r="Z31" s="16"/>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="52"/>
-      <c r="P24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="Z24" s="52"/>
+    <row r="32" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M32" s="16"/>
+      <c r="Z32" s="16"/>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="52"/>
-      <c r="P25" s="50"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="Z25" s="52"/>
+    <row r="33" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M33" s="16"/>
+      <c r="Z33" s="16"/>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="52"/>
-      <c r="P26" s="50"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="Z26" s="52"/>
+    <row r="34" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M34" s="16"/>
+      <c r="Z34" s="16"/>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="52"/>
-      <c r="P27" s="50"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="Z27" s="52"/>
+    <row r="35" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M35" s="16"/>
+      <c r="Z35" s="16"/>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="52"/>
-      <c r="P28" s="50"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="Z28" s="52"/>
+    <row r="36" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M36" s="16"/>
+      <c r="Z36" s="16"/>
     </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="52"/>
-      <c r="P29" s="50"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="Z29" s="52"/>
+    <row r="37" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M37" s="16"/>
+      <c r="Z37" s="16"/>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="52"/>
-      <c r="P30" s="50"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="Z30" s="52"/>
+    <row r="38" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M38" s="16"/>
+      <c r="Z38" s="16"/>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="52"/>
-      <c r="P31" s="50"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="Z31" s="52"/>
+    <row r="39" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M39" s="16"/>
+      <c r="Z39" s="16"/>
     </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="52"/>
-      <c r="P32" s="50"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="Z32" s="52"/>
+    <row r="40" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M40" s="16"/>
+      <c r="Z40" s="16"/>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="50"/>
-      <c r="I33" s="51"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="52"/>
-      <c r="P33" s="50"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="Z33" s="52"/>
+    <row r="41" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M41" s="16"/>
+      <c r="Z41" s="16"/>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="52"/>
-      <c r="P34" s="50"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="Z34" s="52"/>
+    <row r="42" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M42" s="16"/>
+      <c r="Z42" s="16"/>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="52"/>
-      <c r="P35" s="50"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="Z35" s="52"/>
+    <row r="43" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M43" s="16"/>
+      <c r="Z43" s="16"/>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="52"/>
-      <c r="P36" s="50"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="Z36" s="52"/>
+    <row r="44" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M44" s="16"/>
+      <c r="Z44" s="16"/>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="52"/>
-      <c r="P37" s="50"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="Z37" s="52"/>
+    <row r="45" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M45" s="16"/>
+      <c r="Z45" s="16"/>
     </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="50"/>
-      <c r="I38" s="51"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="52"/>
-      <c r="P38" s="50"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="Z38" s="52"/>
+    <row r="46" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M46" s="16"/>
+      <c r="Z46" s="16"/>
     </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="50"/>
-      <c r="I39" s="51"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="52"/>
-      <c r="P39" s="50"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="Z39" s="52"/>
+    <row r="47" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M47" s="16"/>
+      <c r="Z47" s="16"/>
     </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="50"/>
-      <c r="I40" s="51"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="52"/>
-      <c r="P40" s="50"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="Z40" s="52"/>
+    <row r="48" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M48" s="16"/>
+      <c r="Z48" s="16"/>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="50"/>
-      <c r="I41" s="51"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="52"/>
-      <c r="P41" s="50"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="Z41" s="52"/>
+    <row r="49" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M49" s="16"/>
+      <c r="Z49" s="16"/>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="52"/>
-      <c r="P42" s="50"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="Z42" s="52"/>
+    <row r="50" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M50" s="16"/>
+      <c r="Z50" s="16"/>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="52"/>
-      <c r="P43" s="50"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="Z43" s="52"/>
+    <row r="51" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M51" s="16"/>
+      <c r="Z51" s="16"/>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="52"/>
-      <c r="P44" s="50"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="Z44" s="52"/>
-    </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="50"/>
-      <c r="I45" s="51"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="52"/>
-      <c r="P45" s="50"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="Z45" s="52"/>
-    </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="50"/>
-      <c r="I46" s="51"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="52"/>
-      <c r="P46" s="50"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="Z46" s="52"/>
-    </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="50"/>
-      <c r="I47" s="51"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="52"/>
-      <c r="P47" s="50"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="Z47" s="52"/>
-    </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="50"/>
-      <c r="I48" s="51"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="52"/>
-      <c r="P48" s="50"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="Z48" s="52"/>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="50"/>
-      <c r="I49" s="51"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="52"/>
-      <c r="P49" s="50"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="Z49" s="52"/>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="50"/>
-      <c r="I50" s="51"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="52"/>
-      <c r="P50" s="50"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="Z50" s="52"/>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="50"/>
-      <c r="I51" s="51"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="52"/>
-      <c r="P51" s="50"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="Z51" s="52"/>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="50"/>
-      <c r="I52" s="51"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="52"/>
-      <c r="P52" s="50"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="Z52" s="52"/>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="50"/>
-      <c r="I53" s="51"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
+    <row r="52" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M52" s="16"/>
+      <c r="Z52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18343,14 +17236,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -18368,7 +17253,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -18376,608 +17261,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="51" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="50" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="51" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="50" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="51" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="50" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="51" customWidth="1"/>
-    <col min="23" max="27" width="4.83203125" style="50" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="50" customWidth="1"/>
-    <col min="29" max="29" width="4.83203125" style="50" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="51" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="50"/>
+    <col min="1" max="27" width="4.83203125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="4" customWidth="1"/>
+    <col min="29" max="31" width="4.83203125" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="96" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="149" t="str">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="119" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>Screen Transition Diagram</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="87" t="s">
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="114" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="10"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="4"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
     </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="87" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="114" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="144">
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="114">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
-      <c r="AJ2" s="10"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="4"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
     </row>
-    <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="114" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="114" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-    </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+    <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M18" s="16"/>
+      <c r="Z18" s="16"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="1:50" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="52"/>
-      <c r="P18" s="50"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="Z18" s="52"/>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-    </row>
-    <row r="22" spans="3:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-    </row>
-    <row r="27" spans="3:31" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="F28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-    </row>
-    <row r="29" spans="3:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="F31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="F33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="52"/>
-      <c r="P35" s="50"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="Z35" s="52"/>
+    <row r="35" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M35" s="16"/>
+      <c r="Z35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18987,14 +17489,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
